--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_29.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2583708.433213433</v>
+        <v>2659238.102878236</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1026888.022941145</v>
+        <v>266965.9414316449</v>
       </c>
     </row>
     <row r="8">
@@ -656,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>7.890855778046045</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>263.9796317171568</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +755,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553073</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -835,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>33.80998328326085</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>83.58354151325328</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -893,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -941,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>144.5425776078363</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>173.0525431981587</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1054,22 +1056,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>25.31590541686258</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1096,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1114,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>135.0087211245116</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1133,19 +1135,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -1178,19 +1180,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>312.502648952268</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1199,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>87.39943670310043</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>101.7483282677573</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1306,10 +1308,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>25.54234600322182</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1333,19 +1335,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1357,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1379,16 +1381,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>112.7491951016478</v>
+        <v>64.3419076393841</v>
       </c>
     </row>
     <row r="14">
@@ -1610,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1625,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1765,22 +1767,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>8.984976269991716</v>
+        <v>8.399154962863356</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -1810,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1828,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1850,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1904,7 +1906,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1999,19 +2001,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>47.47994935546846</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2020,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>105.6571329437492</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2087,7 +2089,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2099,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2242,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>57.64843562452406</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2299,13 +2301,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>186.0891662132291</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2318,7 +2320,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2336,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>121.4557673726582</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2485,13 +2487,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>36.642893428777</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2542,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2612,7 +2614,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2652,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,22 +2712,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>32.33602639003086</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>143.2925104849745</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2779,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2858,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="30">
@@ -2889,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>63.34366379209531</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3001,22 +3003,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>237.6821551249385</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3029,7 +3031,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3047,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3190,16 +3192,16 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>88.76832675740233</v>
       </c>
       <c r="E34" t="n">
-        <v>25.82923535834103</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -3235,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -3244,16 +3246,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0785952497999</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3363,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3430,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3439,10 +3441,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>175.5188463595107</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>221.9323490168575</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3518,10 +3520,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113192</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3670,13 +3672,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,25 +3708,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>114.1465743147271</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>122.6238729027264</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3758,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3806,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3837,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3904,10 +3906,10 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3916,7 +3918,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>50.73865105455835</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
@@ -3964,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>157.7551669795686</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,16 +4134,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>49.02454430863556</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4150,10 +4152,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>4.46707130753651</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,25 +4182,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>614.0661152341316</v>
+        <v>1757.312204670903</v>
       </c>
       <c r="C2" t="n">
-        <v>614.0661152341316</v>
+        <v>1757.312204670903</v>
       </c>
       <c r="D2" t="n">
-        <v>614.0661152341316</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E2" t="n">
-        <v>228.2778626358874</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>221.3323618866839</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4331,16 +4333,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V2" t="n">
-        <v>1993.54646147304</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="W2" t="n">
-        <v>1640.777806202926</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="X2" t="n">
-        <v>1267.312047941846</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="Y2" t="n">
-        <v>1000.665955298253</v>
+        <v>1757.312204670903</v>
       </c>
     </row>
     <row r="3">
@@ -4389,43 +4391,43 @@
         <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F3" t="n">
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>99.5995062532301</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="C4" t="n">
-        <v>99.5995062532301</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="D4" t="n">
-        <v>99.5995062532301</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="E4" t="n">
-        <v>99.5995062532301</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F4" t="n">
-        <v>99.5995062532301</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G4" t="n">
-        <v>99.5995062532301</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H4" t="n">
-        <v>99.5995062532301</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>693.9774859405142</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>479.6890627586769</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>479.6890627586769</v>
       </c>
       <c r="U4" t="n">
-        <v>643.7011644960776</v>
+        <v>479.6890627586769</v>
       </c>
       <c r="V4" t="n">
-        <v>389.0166762901907</v>
+        <v>479.6890627586769</v>
       </c>
       <c r="W4" t="n">
-        <v>99.5995062532301</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="X4" t="n">
-        <v>99.5995062532301</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="Y4" t="n">
-        <v>99.5995062532301</v>
+        <v>190.2718927217162</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1001.280783616703</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="C5" t="n">
-        <v>632.3182666762915</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="D5" t="n">
-        <v>632.3182666762915</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E5" t="n">
-        <v>632.3182666762915</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F5" t="n">
-        <v>221.3323618866839</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
         <v>207.4089578252748</v>
@@ -4562,7 +4564,7 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533142</v>
@@ -4583,34 +4585,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2267.209817970484</v>
+        <v>2496.117797904436</v>
       </c>
       <c r="V5" t="n">
-        <v>1936.146930626914</v>
+        <v>2165.054910560866</v>
       </c>
       <c r="W5" t="n">
-        <v>1936.146930626914</v>
+        <v>1812.286255290752</v>
       </c>
       <c r="X5" t="n">
-        <v>1562.681172365834</v>
+        <v>1812.286255290752</v>
       </c>
       <c r="Y5" t="n">
-        <v>1387.880623680825</v>
+        <v>1422.14692331494</v>
       </c>
     </row>
     <row r="6">
@@ -4620,43 +4622,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641992</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4665,28 +4667,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>380.6911546495019</v>
+        <v>546.4805193761947</v>
       </c>
       <c r="C7" t="n">
-        <v>380.6911546495019</v>
+        <v>377.5443364482878</v>
       </c>
       <c r="D7" t="n">
-        <v>380.6911546495019</v>
+        <v>227.4276970359521</v>
       </c>
       <c r="E7" t="n">
-        <v>380.6911546495019</v>
+        <v>79.51460345355898</v>
       </c>
       <c r="F7" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4744,31 +4746,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>562.3396194797416</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>562.3396194797416</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>562.3396194797416</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1156.75737613363</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="C8" t="n">
-        <v>787.7948591932184</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="D8" t="n">
-        <v>787.7948591932184</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E8" t="n">
-        <v>402.0066065949742</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F8" t="n">
-        <v>395.0611058457707</v>
+        <v>799.1015098861747</v>
       </c>
       <c r="G8" t="n">
         <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4820,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T8" t="n">
-        <v>2302.336936304456</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U8" t="n">
-        <v>2302.336936304456</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="V8" t="n">
-        <v>1971.274048960885</v>
+        <v>2326.461160182788</v>
       </c>
       <c r="W8" t="n">
-        <v>1618.505393690771</v>
+        <v>1973.692504912674</v>
       </c>
       <c r="X8" t="n">
-        <v>1245.039635429691</v>
+        <v>1600.226746651594</v>
       </c>
       <c r="Y8" t="n">
-        <v>1156.75737613363</v>
+        <v>1210.087414675782</v>
       </c>
     </row>
     <row r="9">
@@ -4878,16 +4880,16 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598711</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>293.047981881067</v>
+        <v>79.74333131856829</v>
       </c>
       <c r="C10" t="n">
-        <v>190.2718927217162</v>
+        <v>79.74333131856829</v>
       </c>
       <c r="D10" t="n">
-        <v>190.2718927217162</v>
+        <v>79.74333131856829</v>
       </c>
       <c r="E10" t="n">
-        <v>190.2718927217162</v>
+        <v>79.74333131856829</v>
       </c>
       <c r="F10" t="n">
-        <v>190.2718927217162</v>
+        <v>79.74333131856829</v>
       </c>
       <c r="G10" t="n">
-        <v>190.2718927217162</v>
+        <v>79.74333131856829</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S10" t="n">
-        <v>513.8405610245972</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="T10" t="n">
-        <v>513.8405610245972</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="U10" t="n">
-        <v>513.8405610245972</v>
+        <v>261.391796148808</v>
       </c>
       <c r="V10" t="n">
-        <v>513.8405610245972</v>
+        <v>261.391796148808</v>
       </c>
       <c r="W10" t="n">
-        <v>513.8405610245972</v>
+        <v>261.391796148808</v>
       </c>
       <c r="X10" t="n">
-        <v>513.8405610245972</v>
+        <v>261.391796148808</v>
       </c>
       <c r="Y10" t="n">
-        <v>293.047981881067</v>
+        <v>261.391796148808</v>
       </c>
     </row>
     <row r="11">
@@ -5027,10 +5029,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
@@ -5039,16 +5041,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
         <v>3183.709822619127</v>
@@ -5057,7 +5059,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5121,22 +5123,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K12" t="n">
-        <v>97.21709146028584</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L12" t="n">
-        <v>711.1141612171745</v>
+        <v>452.5377573864724</v>
       </c>
       <c r="M12" t="n">
-        <v>1479.482307609636</v>
+        <v>1019.893908186784</v>
       </c>
       <c r="N12" t="n">
-        <v>2283.893885873787</v>
+        <v>1364.414563824402</v>
       </c>
       <c r="O12" t="n">
-        <v>2563.433951092484</v>
+        <v>2033.878325127062</v>
       </c>
       <c r="P12" t="n">
-        <v>2623.573505376138</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>413.3055067228584</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C13" t="n">
-        <v>413.3055067228584</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D13" t="n">
-        <v>413.3055067228584</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E13" t="n">
-        <v>265.3924131404652</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F13" t="n">
-        <v>265.3924131404652</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5221,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T13" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U13" t="n">
-        <v>1009.867621687013</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V13" t="n">
-        <v>755.183133481126</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="W13" t="n">
-        <v>755.183133481126</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="X13" t="n">
-        <v>527.1935825831087</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="Y13" t="n">
-        <v>413.3055067228584</v>
+        <v>1322.84934122136</v>
       </c>
     </row>
     <row r="14">
@@ -5258,28 +5260,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5294,10 +5296,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014292</v>
@@ -5358,22 +5360,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>263.5382936126482</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L15" t="n">
-        <v>510.3034215191122</v>
+        <v>618.8589595388348</v>
       </c>
       <c r="M15" t="n">
-        <v>1278.671567911574</v>
+        <v>939.1942790685366</v>
       </c>
       <c r="N15" t="n">
-        <v>1608.534195575606</v>
+        <v>1743.605857332687</v>
       </c>
       <c r="O15" t="n">
-        <v>2145.820610447073</v>
+        <v>2371.535469249458</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>364.7173639423009</v>
+        <v>981.5095496229244</v>
       </c>
       <c r="C16" t="n">
-        <v>364.7173639423009</v>
+        <v>812.5733666950175</v>
       </c>
       <c r="D16" t="n">
-        <v>364.7173639423009</v>
+        <v>662.4567272826818</v>
       </c>
       <c r="E16" t="n">
-        <v>364.7173639423009</v>
+        <v>514.5436337002886</v>
       </c>
       <c r="F16" t="n">
-        <v>217.8274164443906</v>
+        <v>367.6536862023783</v>
       </c>
       <c r="G16" t="n">
-        <v>208.7516828383384</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H16" t="n">
         <v>208.7516828383384</v>
@@ -5458,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1164.055751909234</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>874.9271131227918</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V16" t="n">
-        <v>874.9271131227918</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W16" t="n">
-        <v>585.5099430858311</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X16" t="n">
-        <v>585.5099430858311</v>
+        <v>981.5095496229244</v>
       </c>
       <c r="Y16" t="n">
-        <v>364.7173639423009</v>
+        <v>981.5095496229244</v>
       </c>
     </row>
     <row r="17">
@@ -5489,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
@@ -5516,13 +5518,13 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N17" t="n">
         <v>3183.709822619127</v>
@@ -5531,7 +5533,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5555,10 +5557,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5592,22 +5594,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>508.1073603047985</v>
+        <v>469.5954827887337</v>
       </c>
       <c r="L18" t="n">
-        <v>1122.004430061687</v>
+        <v>699.5585886570829</v>
       </c>
       <c r="M18" t="n">
-        <v>1318.370476901345</v>
+        <v>1019.893908186785</v>
       </c>
       <c r="N18" t="n">
-        <v>2122.782055165496</v>
+        <v>1364.414563824403</v>
       </c>
       <c r="O18" t="n">
-        <v>2371.535469249458</v>
+        <v>2033.878325127062</v>
       </c>
       <c r="P18" t="n">
         <v>2554.178946862809</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>720.4504516500522</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>551.5142687221453</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>503.5547239186418</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5695,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1298.996260473455</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U19" t="n">
-        <v>1009.867621687013</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V19" t="n">
-        <v>1009.867621687013</v>
+        <v>568.2827263274862</v>
       </c>
       <c r="W19" t="n">
-        <v>720.4504516500522</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="X19" t="n">
-        <v>720.4504516500522</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y19" t="n">
-        <v>720.4504516500522</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="20">
@@ -5726,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
@@ -5744,13 +5746,13 @@
         <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
         <v>889.2841917514083</v>
@@ -5792,10 +5794,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5832,22 +5834,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K21" t="n">
-        <v>222.5746515181232</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L21" t="n">
-        <v>469.3397794245873</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M21" t="n">
-        <v>1237.707925817049</v>
+        <v>1442.339749591389</v>
       </c>
       <c r="N21" t="n">
-        <v>1582.228581454667</v>
+        <v>2122.782055165496</v>
       </c>
       <c r="O21" t="n">
-        <v>1830.981995538629</v>
+        <v>2371.535469249458</v>
       </c>
       <c r="P21" t="n">
-        <v>2351.282617274376</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4036.632755132881</v>
+        <v>324.3840174432676</v>
       </c>
       <c r="C22" t="n">
-        <v>3867.696572204974</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="D22" t="n">
-        <v>3717.579932792638</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="E22" t="n">
-        <v>3717.579932792638</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="F22" t="n">
-        <v>3570.689985294728</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="G22" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>4660.934562929845</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>4660.934562929845</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U22" t="n">
-        <v>4660.934562929845</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V22" t="n">
-        <v>4406.250074723958</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W22" t="n">
-        <v>4218.281219963121</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X22" t="n">
-        <v>4218.281219963121</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y22" t="n">
-        <v>4218.281219963121</v>
+        <v>506.0324822735073</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5987,13 +5989,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6023,16 +6025,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6069,22 +6071,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L24" t="n">
-        <v>1288.32563221405</v>
+        <v>618.8589595388348</v>
       </c>
       <c r="M24" t="n">
-        <v>1288.32563221405</v>
+        <v>939.1942790685366</v>
       </c>
       <c r="N24" t="n">
-        <v>1797.533454227377</v>
+        <v>1691.441695849499</v>
       </c>
       <c r="O24" t="n">
-        <v>1797.533454227377</v>
+        <v>2360.905457152158</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q24" t="n">
         <v>2612.943493278838</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4223.429265789278</v>
+        <v>517.9294177607301</v>
       </c>
       <c r="C25" t="n">
-        <v>4054.493082861371</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D25" t="n">
-        <v>3904.376443449036</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E25" t="n">
-        <v>3756.463349866643</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>3609.573402368732</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>3609.573402368732</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>4549.85945949167</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>4549.85945949167</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U25" t="n">
-        <v>4512.846435826239</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V25" t="n">
-        <v>4512.846435826239</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W25" t="n">
-        <v>4223.429265789278</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="X25" t="n">
-        <v>4223.429265789278</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="Y25" t="n">
-        <v>4223.429265789278</v>
+        <v>699.5778825909698</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
@@ -6224,19 +6226,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6251,25 +6253,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6306,22 +6308,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>412.6079778147081</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L27" t="n">
-        <v>659.3731057211721</v>
+        <v>1002.792923427374</v>
       </c>
       <c r="M27" t="n">
-        <v>1427.741252113633</v>
+        <v>1323.128242957076</v>
       </c>
       <c r="N27" t="n">
-        <v>1757.603879777666</v>
+        <v>2112.152043068196</v>
       </c>
       <c r="O27" t="n">
-        <v>2092.642871543091</v>
+        <v>2360.905457152158</v>
       </c>
       <c r="P27" t="n">
-        <v>2612.943493278838</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q27" t="n">
         <v>2612.943493278838</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3808.667323346199</v>
+        <v>434.3285960683721</v>
       </c>
       <c r="C28" t="n">
-        <v>3639.731140418292</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D28" t="n">
-        <v>3607.068487499069</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E28" t="n">
-        <v>3459.155393916676</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F28" t="n">
-        <v>3459.155393916676</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G28" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>4549.85945949167</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>4326.074044281177</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>4326.074044281177</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V28" t="n">
-        <v>4326.074044281177</v>
+        <v>1354.17636097712</v>
       </c>
       <c r="W28" t="n">
-        <v>4036.656874244216</v>
+        <v>1064.759190940159</v>
       </c>
       <c r="X28" t="n">
-        <v>3808.667323346199</v>
+        <v>836.769640042142</v>
       </c>
       <c r="Y28" t="n">
-        <v>3808.667323346199</v>
+        <v>615.9770608986119</v>
       </c>
     </row>
     <row r="29">
@@ -6461,10 +6463,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6497,13 +6499,13 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614725</v>
@@ -6540,28 +6542,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>549.5984374701561</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L30" t="n">
-        <v>549.5984374701561</v>
+        <v>1002.792923427374</v>
       </c>
       <c r="M30" t="n">
-        <v>869.9337569998579</v>
+        <v>1323.128242957076</v>
       </c>
       <c r="N30" t="n">
-        <v>1674.345335264009</v>
+        <v>1323.128242957076</v>
       </c>
       <c r="O30" t="n">
-        <v>2343.809096566668</v>
+        <v>1992.592004259735</v>
       </c>
       <c r="P30" t="n">
-        <v>2526.452574180019</v>
+        <v>2512.892625995482</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>889.3582447451976</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>825.3747459653033</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>675.2581065529675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
@@ -6649,22 +6651,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>1298.996260473455</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V31" t="n">
-        <v>1298.996260473455</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W31" t="n">
-        <v>1298.996260473455</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X31" t="n">
-        <v>1071.006709575437</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y31" t="n">
-        <v>1071.006709575437</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6677,52 +6679,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231263</v>
@@ -6765,19 +6767,19 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K33" t="n">
         <v>508.1073603047985</v>
@@ -6786,19 +6788,19 @@
         <v>1122.004430061687</v>
       </c>
       <c r="M33" t="n">
-        <v>1890.372576454149</v>
+        <v>1801.299954809455</v>
       </c>
       <c r="N33" t="n">
-        <v>1890.372576454149</v>
+        <v>2145.820610447073</v>
       </c>
       <c r="O33" t="n">
-        <v>2407.921012496628</v>
+        <v>2145.820610447073</v>
       </c>
       <c r="P33" t="n">
-        <v>2612.943493278838</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>441.900558318119</v>
+        <v>337.3000764349712</v>
       </c>
       <c r="C34" t="n">
-        <v>441.900558318119</v>
+        <v>337.3000764349712</v>
       </c>
       <c r="D34" t="n">
-        <v>441.900558318119</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E34" t="n">
-        <v>415.8104215925219</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F34" t="n">
-        <v>415.8104215925219</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G34" t="n">
-        <v>247.6350999123425</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6883,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>986.0022165609664</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V34" t="n">
-        <v>731.3177283550796</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W34" t="n">
-        <v>441.900558318119</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="X34" t="n">
-        <v>441.900558318119</v>
+        <v>558.0926555785013</v>
       </c>
       <c r="Y34" t="n">
-        <v>441.900558318119</v>
+        <v>337.3000764349712</v>
       </c>
     </row>
     <row r="35">
@@ -6911,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
@@ -6947,19 +6949,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231263</v>
@@ -6968,19 +6970,19 @@
         <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3224.712326690732</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C36" t="n">
-        <v>3050.259297409605</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D36" t="n">
-        <v>2901.324887748354</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E36" t="n">
-        <v>2742.087432742898</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>2595.552874769783</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>2458.626196373968</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>2362.681322805656</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>2334.49815909844</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>2334.49815909844</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>2745.388427942953</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="L36" t="n">
-        <v>2745.388427942953</v>
+        <v>699.5585886570826</v>
       </c>
       <c r="M36" t="n">
-        <v>3094.823850208048</v>
+        <v>1019.893908186784</v>
       </c>
       <c r="N36" t="n">
-        <v>3899.235428472199</v>
+        <v>1364.414563824402</v>
       </c>
       <c r="O36" t="n">
-        <v>4568.699189774858</v>
+        <v>2033.878325127062</v>
       </c>
       <c r="P36" t="n">
-        <v>4773.721670557068</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q36" t="n">
-        <v>4860.854573014291</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
-        <v>4860.854573014291</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S36" t="n">
-        <v>4720.948468098066</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T36" t="n">
-        <v>4526.033852021844</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U36" t="n">
-        <v>4297.928927641231</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V36" t="n">
-        <v>4062.776819409488</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W36" t="n">
-        <v>3808.539462681287</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X36" t="n">
-        <v>3600.687962475754</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y36" t="n">
-        <v>3392.9276637108</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3869.021087329177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>3869.021087329177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>3869.021087329177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>3721.107993746784</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>3721.107993746784</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>3721.107993746784</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431055</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436452</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042135</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>4749.779469576117</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>4572.487705576611</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>4572.487705576611</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U37" t="n">
-        <v>4572.487705576611</v>
+        <v>1050.956765431391</v>
       </c>
       <c r="V37" t="n">
-        <v>4317.803217370724</v>
+        <v>796.2722772255036</v>
       </c>
       <c r="W37" t="n">
-        <v>4317.803217370724</v>
+        <v>506.8551071885429</v>
       </c>
       <c r="X37" t="n">
-        <v>4089.813666472707</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y37" t="n">
-        <v>3869.021087329177</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805485</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C39" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D39" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E39" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J39" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K39" t="n">
-        <v>2690.813713766238</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L39" t="n">
-        <v>3304.710783523126</v>
+        <v>904.3916683255102</v>
       </c>
       <c r="M39" t="n">
-        <v>3625.046103052828</v>
+        <v>1672.759814717972</v>
       </c>
       <c r="N39" t="n">
-        <v>4429.457681316979</v>
+        <v>2122.782055165496</v>
       </c>
       <c r="O39" t="n">
-        <v>4678.211095400941</v>
+        <v>2371.535469249458</v>
       </c>
       <c r="P39" t="n">
-        <v>4860.854573014292</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q39" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S39" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T39" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U39" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V39" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W39" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X39" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y39" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="40">
@@ -7306,40 +7308,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>562.7003690904323</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C40" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D40" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E40" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F40" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G40" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7348,34 +7350,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S40" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T40" t="n">
-        <v>1072.621587020404</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U40" t="n">
-        <v>783.4929482339625</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="V40" t="n">
-        <v>783.4929482339625</v>
+        <v>1020.446367141522</v>
       </c>
       <c r="W40" t="n">
-        <v>783.4929482339625</v>
+        <v>896.58386925998</v>
       </c>
       <c r="X40" t="n">
-        <v>783.4929482339625</v>
+        <v>668.5943183619627</v>
       </c>
       <c r="Y40" t="n">
-        <v>562.7003690904323</v>
+        <v>447.8017392184325</v>
       </c>
     </row>
     <row r="41">
@@ -7400,37 +7402,37 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014293</v>
@@ -7476,40 +7478,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>508.1073603047985</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L42" t="n">
-        <v>738.0704661731477</v>
+        <v>618.8589595388348</v>
       </c>
       <c r="M42" t="n">
-        <v>1506.438612565609</v>
+        <v>939.1942790685366</v>
       </c>
       <c r="N42" t="n">
-        <v>1850.959268203227</v>
+        <v>1691.441695849499</v>
       </c>
       <c r="O42" t="n">
-        <v>2099.712682287189</v>
+        <v>2360.905457152158</v>
       </c>
       <c r="P42" t="n">
-        <v>2554.178946862809</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>4073.312626376944</v>
+        <v>3890.044176674691</v>
       </c>
       <c r="C43" t="n">
-        <v>3904.376443449037</v>
+        <v>3721.107993746784</v>
       </c>
       <c r="D43" t="n">
-        <v>3904.376443449037</v>
+        <v>3721.107993746784</v>
       </c>
       <c r="E43" t="n">
-        <v>3756.463349866644</v>
+        <v>3721.107993746784</v>
       </c>
       <c r="F43" t="n">
-        <v>3609.573402368733</v>
+        <v>3721.107993746784</v>
       </c>
       <c r="G43" t="n">
-        <v>3609.573402368733</v>
+        <v>3721.107993746784</v>
       </c>
       <c r="H43" t="n">
-        <v>3459.155393916677</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="I43" t="n">
-        <v>3459.155393916677</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J43" t="n">
-        <v>3471.538086380586</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K43" t="n">
-        <v>3621.723490625198</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L43" t="n">
-        <v>3869.435535636327</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M43" t="n">
-        <v>4141.00227840351</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N43" t="n">
-        <v>4411.546387431057</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O43" t="n">
-        <v>4645.421365436454</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P43" t="n">
-        <v>4822.021130042137</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q43" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R43" t="n">
-        <v>4749.779469576119</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S43" t="n">
-        <v>4749.779469576119</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="T43" t="n">
-        <v>4749.779469576119</v>
+        <v>4809.60341033292</v>
       </c>
       <c r="U43" t="n">
-        <v>4460.650830789677</v>
+        <v>4520.474771546478</v>
       </c>
       <c r="V43" t="n">
-        <v>4460.650830789677</v>
+        <v>4520.474771546478</v>
       </c>
       <c r="W43" t="n">
-        <v>4460.650830789677</v>
+        <v>4520.474771546478</v>
       </c>
       <c r="X43" t="n">
-        <v>4232.661279891659</v>
+        <v>4292.485220648461</v>
       </c>
       <c r="Y43" t="n">
-        <v>4073.312626376944</v>
+        <v>4071.692641504931</v>
       </c>
     </row>
     <row r="44">
@@ -7637,40 +7639,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7713,34 +7715,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K45" t="n">
-        <v>97.21709146028587</v>
+        <v>508.1073603047986</v>
       </c>
       <c r="L45" t="n">
-        <v>343.9822193667499</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M45" t="n">
-        <v>1112.350365759211</v>
+        <v>1609.589088435861</v>
       </c>
       <c r="N45" t="n">
-        <v>1916.761944023362</v>
+        <v>1954.109744073479</v>
       </c>
       <c r="O45" t="n">
-        <v>2440.930027762787</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P45" t="n">
         <v>2623.573505376138</v>
@@ -7780,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>732.358329063101</v>
+        <v>420.3226148324578</v>
       </c>
       <c r="C46" t="n">
-        <v>563.4221461351941</v>
+        <v>420.3226148324578</v>
       </c>
       <c r="D46" t="n">
-        <v>413.3055067228584</v>
+        <v>420.3226148324578</v>
       </c>
       <c r="E46" t="n">
-        <v>265.3924131404652</v>
+        <v>420.3226148324578</v>
       </c>
       <c r="F46" t="n">
-        <v>265.3924131404652</v>
+        <v>420.3226148324578</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028587</v>
+        <v>252.1472931522784</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028587</v>
+        <v>101.7292847002217</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7810,10 +7812,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7822,34 +7824,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T46" t="n">
-        <v>1298.996260473455</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="U46" t="n">
-        <v>1009.867621687013</v>
+        <v>675.0071030383447</v>
       </c>
       <c r="V46" t="n">
-        <v>1009.867621687013</v>
+        <v>420.3226148324578</v>
       </c>
       <c r="W46" t="n">
-        <v>1009.867621687013</v>
+        <v>420.3226148324578</v>
       </c>
       <c r="X46" t="n">
-        <v>781.8780707889955</v>
+        <v>420.3226148324578</v>
       </c>
       <c r="Y46" t="n">
-        <v>781.8780707889955</v>
+        <v>420.3226148324578</v>
       </c>
     </row>
   </sheetData>
@@ -8076,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747122</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142012</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8307,7 +8309,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783515</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8529,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8766,10 +8768,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8781,16 +8783,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>194.7214319432741</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9006,19 +9008,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>260.3498481341109</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9027,7 +9029,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9249,7 +9251,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
         <v>479.3423743435536</v>
@@ -9477,13 +9479,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
@@ -9498,10 +9500,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>187.0282683278168</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9723,13 +9725,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>181.1567619689845</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
@@ -9954,25 +9956,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>56.05952176437165</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10188,19 +10190,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10209,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>10.08891791807667</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10370,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10437,19 +10439,19 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10665,13 +10667,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>42.54069594458014</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
         <v>479.3423743435536</v>
@@ -10680,13 +10682,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10902,7 +10904,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>41.33804880138896</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10911,7 +10913,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>121.3733462459509</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -10920,10 +10922,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11063,7 +11065,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504515</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11160,7 +11162,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11376,10 +11378,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
@@ -11391,7 +11393,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -23413,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>105.835458250447</v>
+        <v>154.2427457127107</v>
       </c>
     </row>
     <row r="14">
@@ -23653,22 +23655,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>157.5085921933859</v>
+        <v>158.0944135005142</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23716,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,19 +23889,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>101.1355236627439</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23908,7 +23910,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>146.4805103800788</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24130,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>108.8451328388535</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,7 +24177,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -24187,13 +24189,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>100.4338321233619</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>45.7910537259696</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24373,13 +24375,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24409,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>249.5944589698003</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24430,7 +24432,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,22 +24600,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>116.2794466281815</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24646,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>108.8451328388535</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>103.9031573065325</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,22 +24891,22 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>48.8408432116525</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25078,16 +25080,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>59.84714626081002</v>
       </c>
       <c r="E34" t="n">
-        <v>120.6047272882281</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25123,7 +25125,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25132,16 +25134,16 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25318,7 +25320,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25327,10 +25329,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>22.40196362409256</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>64.30500338171984</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25546,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25558,13 +25560,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -25594,25 +25596,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>107.4009867436622</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>163.8991254338646</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25792,10 +25794,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
@@ -25804,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>170.8089100038309</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25852,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>60.82948637252616</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26020,16 +26022,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>130.8074358733018</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26038,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>105.9521741567355</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,25 +26070,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>801609.5724623034</v>
+        <v>801609.5724623036</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>801609.5724623036</v>
+        <v>801609.5724623034</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>801609.5724623034</v>
+        <v>801609.5724623033</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>801609.5724623033</v>
+        <v>801609.5724623034</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>801609.5724623036</v>
+        <v>801609.5724623034</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>801609.5724623034</v>
+        <v>801609.5724623036</v>
       </c>
     </row>
     <row r="13">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516051</v>
+        <v>595255.2831516046</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516048</v>
+        <v>595255.2831516047</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516048</v>
+        <v>595255.2831516047</v>
       </c>
       <c r="E2" t="n">
+        <v>566992.1366196777</v>
+      </c>
+      <c r="F2" t="n">
+        <v>566992.1366196775</v>
+      </c>
+      <c r="G2" t="n">
         <v>566992.1366196781</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
+        <v>566992.136619678</v>
+      </c>
+      <c r="I2" t="n">
+        <v>566992.1366196779</v>
+      </c>
+      <c r="J2" t="n">
         <v>566992.1366196778</v>
       </c>
-      <c r="G2" t="n">
-        <v>566992.1366196778</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="K2" t="n">
         <v>566992.1366196779</v>
       </c>
-      <c r="I2" t="n">
-        <v>566992.136619678</v>
-      </c>
-      <c r="J2" t="n">
-        <v>566992.1366196783</v>
-      </c>
-      <c r="K2" t="n">
-        <v>566992.1366196778</v>
-      </c>
       <c r="L2" t="n">
-        <v>566992.136619678</v>
+        <v>566992.1366196774</v>
       </c>
       <c r="M2" t="n">
-        <v>566992.1366196778</v>
+        <v>566992.1366196774</v>
       </c>
       <c r="N2" t="n">
-        <v>566992.136619678</v>
+        <v>566992.1366196781</v>
       </c>
       <c r="O2" t="n">
-        <v>566992.136619678</v>
+        <v>566992.1366196779</v>
       </c>
       <c r="P2" t="n">
-        <v>566992.1366196781</v>
+        <v>566992.1366196775</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768963</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,10 +26398,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.11379904410569e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26418,46 +26420,46 @@
         <v>139059.1391806191</v>
       </c>
       <c r="C4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="D4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="G4" t="n">
-        <v>787.7936905758693</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="H4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="I4" t="n">
-        <v>787.7936905758693</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="J4" t="n">
         <v>787.7936905758694</v>
       </c>
       <c r="K4" t="n">
+        <v>787.7936905758695</v>
+      </c>
+      <c r="L4" t="n">
+        <v>787.7936905758695</v>
+      </c>
+      <c r="M4" t="n">
         <v>787.7936905758694</v>
       </c>
-      <c r="L4" t="n">
-        <v>787.7936905759314</v>
-      </c>
-      <c r="M4" t="n">
-        <v>787.7936905758693</v>
-      </c>
       <c r="N4" t="n">
-        <v>787.7936905758693</v>
+        <v>787.7936905758696</v>
       </c>
       <c r="O4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="P4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758693</v>
       </c>
     </row>
     <row r="5">
@@ -26470,40 +26472,40 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871664</v>
@@ -26519,40 +26521,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-216630.813306968</v>
+        <v>-216630.8133069684</v>
       </c>
       <c r="C6" t="n">
-        <v>373337.0659075763</v>
+        <v>373337.0659075762</v>
       </c>
       <c r="D6" t="n">
-        <v>373337.0659075763</v>
+        <v>373337.0659075762</v>
       </c>
       <c r="E6" t="n">
-        <v>-50943.01949651039</v>
+        <v>-50943.01949651111</v>
       </c>
       <c r="F6" t="n">
-        <v>474217.0169803853</v>
+        <v>474217.0169803851</v>
       </c>
       <c r="G6" t="n">
-        <v>474217.0169803853</v>
+        <v>474217.0169803856</v>
       </c>
       <c r="H6" t="n">
+        <v>474217.0169803855</v>
+      </c>
+      <c r="I6" t="n">
         <v>474217.0169803854</v>
       </c>
-      <c r="I6" t="n">
-        <v>474217.0169803855</v>
-      </c>
       <c r="J6" t="n">
-        <v>297793.797787793</v>
+        <v>297793.7977877924</v>
       </c>
       <c r="K6" t="n">
-        <v>474217.0169803853</v>
+        <v>474217.0169803854</v>
       </c>
       <c r="L6" t="n">
-        <v>474217.0169803855</v>
+        <v>474217.0169803849</v>
       </c>
       <c r="M6" t="n">
-        <v>339416.0017465482</v>
+        <v>339416.0017465478</v>
       </c>
       <c r="N6" t="n">
         <v>474217.0169803855</v>
@@ -26561,7 +26563,7 @@
         <v>474217.0169803855</v>
       </c>
       <c r="P6" t="n">
-        <v>474217.0169803856</v>
+        <v>474217.0169803851</v>
       </c>
     </row>
   </sheetData>
@@ -26735,49 +26737,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
     </row>
     <row r="4">
@@ -26790,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26823,7 +26825,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="N4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="O4" t="n">
         <v>1215.213643253573</v>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,10 +27044,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>346.7921858426369</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27424,28 +27426,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>122.2583069388968</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27555,10 +27557,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,22 +27581,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>112.855208696897</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>202.6983327287244</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27613,22 +27615,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27661,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>106.681589900453</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>213.1853954578949</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,22 +27776,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>120.1051426060687</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
@@ -27816,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801578</v>
@@ -27834,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>151.5142772120794</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27853,19 +27855,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27898,19 +27900,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>15.24960951786687</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>298.8385019529532</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>65.49849283087053</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28026,13 +28028,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>130.6285428385733</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,19 +28055,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28077,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31039,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31136,7 +31138,7 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M3" t="n">
-        <v>162.4518126576413</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N3" t="n">
         <v>211.31907117367</v>
@@ -31145,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,22 +31223,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31513,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,25 +31594,25 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>132.9984977071302</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>162.4518126576419</v>
       </c>
       <c r="N9" t="n">
         <v>211.31907117367</v>
@@ -31619,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,22 +31697,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,25 +31840,25 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>249.5159911824346</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -31865,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,16 +32016,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446483</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,37 +32077,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>383.0062604371802</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32312,25 +32314,25 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>81.5147768871193</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>340.4835761842992</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -32461,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,37 +32551,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>339.3147979156454</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,16 +32718,16 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927192</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,37 +32788,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>411.8452132761049</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32971,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,37 +33025,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>448.9930752257593</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,37 +33262,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>30.96596845457215</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,28 +33508,28 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>362.5860658768348</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>271.5101231904218</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,19 +33736,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>208.1385749253387</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33755,16 +33757,16 @@
         <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,28 +33964,28 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -33992,16 +33994,16 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34047,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34059,10 +34061,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34071,19 +34073,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,34 +34201,34 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>411.8452132761049</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P42" t="n">
-        <v>274.5684716790595</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -34235,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34284,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34296,10 +34298,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34308,19 +34310,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927169</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540898</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,31 +34438,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>168.9387261055271</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>278.1966360156191</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -34472,10 +34474,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34521,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34533,10 +34535,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34545,19 +34547,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34784,19 +34786,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>486.0228424856228</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35015,7 +35017,7 @@
         <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047524</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35027,7 +35029,7 @@
         <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262118</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735647</v>
@@ -35170,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35255,19 +35257,19 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>365.2844632307152</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856235</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004661</v>
+        <v>573.0870210104162</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P12" t="n">
-        <v>60.74702452894388</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,25 +35728,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004661</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O15" t="n">
-        <v>542.713550375219</v>
+        <v>634.2723352694653</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>208.1385749253389</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>198.3495422622809</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O18" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
         <v>70.09551364982758</v>
@@ -36121,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,25 +36202,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004661</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N21" t="n">
-        <v>348.0006622602202</v>
+        <v>687.3154601758656</v>
       </c>
       <c r="O21" t="n">
         <v>251.2660748322851</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>275.0413011128909</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,16 +36360,16 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081124</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
         <v>713.1546070951472</v>
@@ -36379,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,28 +36439,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N24" t="n">
-        <v>514.3513353669973</v>
+        <v>759.8458755363251</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,28 +36676,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004661</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>796.9937374859795</v>
       </c>
       <c r="O27" t="n">
-        <v>338.4232240054798</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
         <v>323.5710298279816</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415663</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>98.10195070315078</v>
+        <v>101.0614821043997</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37002,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,22 +37156,22 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004661</v>
+        <v>686.1570957048164</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O33" t="n">
-        <v>522.7761980227069</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37239,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>440.4245404489237</v>
       </c>
       <c r="M36" t="n">
-        <v>352.9650729950463</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.0130327850741</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37476,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,28 +37545,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,16 +37624,16 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>191.9134873893282</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415663</v>
+        <v>454.5679196439638</v>
       </c>
       <c r="O39" t="n">
         <v>251.2660748322851</v>
@@ -37640,7 +37642,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M40" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,28 +37782,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109082</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004661</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N42" t="n">
-        <v>348.0006622602202</v>
+        <v>759.8458755363251</v>
       </c>
       <c r="O42" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P42" t="n">
-        <v>459.0568329046665</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
         <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,28 +38019,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081101</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951484</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,22 +38098,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004661</v>
+        <v>492.5097559335087</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O45" t="n">
-        <v>529.4627108479042</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38172,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2659238.102878236</v>
+        <v>2652221.087986526</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>266965.9414316449</v>
+        <v>475437.9746402199</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.51166597</v>
+        <v>1169509.511665969</v>
       </c>
     </row>
     <row r="9">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>7.890855778046045</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -679,7 +679,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>5.212256748645492</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,22 +712,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553073</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,22 +864,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>33.80998328326085</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>129.0246247964033</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>279.2318806021087</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,16 +943,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>144.5425776078363</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -961,10 +961,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1056,16 +1056,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>25.31590541686258</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>43.31785343913981</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>404.3795358314633</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1192,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>312.502648952268</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>25.54234600322182</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1335,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1347,19 +1347,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>43.31785343913992</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1387,10 +1387,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1539,16 +1539,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1587,16 +1587,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>62.4604100148933</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>64.3419076393841</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1612,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1666,7 +1666,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701364</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>8.399154962863356</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1821,19 +1821,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>249.2583819388119</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1852,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648052002</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1940,10 +1940,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H18" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262919</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.9013320701444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T18" t="n">
         <v>192.9654699154601</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
@@ -2061,13 +2061,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>105.6571329437492</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>143.3158222056524</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2089,7 +2089,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648052002</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>57.64843562452406</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2304,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2320,7 +2320,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,16 +2475,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>121.4557673726582</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2526,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151921</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,19 +2763,19 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>89.60548601218963</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>143.2925104849745</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634824</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2860,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>115.526976800218</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
@@ -3009,16 +3009,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>237.6821551249385</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3192,7 +3192,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>88.76832675740233</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3201,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
@@ -3249,13 +3249,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>146.1854691670921</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3283,7 +3283,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113178</v>
       </c>
       <c r="I35" t="n">
         <v>81.77913505274074</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,16 +3474,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>221.9323490168575</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>251.7020813022237</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3520,7 +3520,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113192</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
         <v>81.77913505274074</v>
@@ -3669,19 +3669,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>122.6036958220702</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,22 +3714,22 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>122.6238729027264</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>49.12199829633401</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,13 +3951,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>50.73865105455835</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -4149,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>4.46707130753651</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>197.9208099836032</v>
@@ -4191,16 +4191,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151922</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1757.312204670903</v>
+        <v>1584.314837422907</v>
       </c>
       <c r="C2" t="n">
-        <v>1757.312204670903</v>
+        <v>1215.352320482495</v>
       </c>
       <c r="D2" t="n">
-        <v>1749.341643278937</v>
+        <v>1215.352320482495</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>1215.352320482495</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>804.3664156928874</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>386.4026075910742</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>59.20788762707707</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4336,7 +4336,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4360,22 +4360,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2478.514423990285</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2478.514423990285</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V2" t="n">
-        <v>2147.451536646714</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W2" t="n">
-        <v>2147.451536646714</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X2" t="n">
-        <v>2147.451536646714</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y2" t="n">
-        <v>1757.312204670903</v>
+        <v>1970.914677487028</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4424,10 +4424,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4512,28 +4512,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>693.9774859405142</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>479.6890627586769</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>479.6890627586769</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="U4" t="n">
-        <v>479.6890627586769</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V4" t="n">
-        <v>479.6890627586769</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1422.14692331494</v>
+        <v>725.8268082199834</v>
       </c>
       <c r="C5" t="n">
-        <v>1422.14692331494</v>
+        <v>356.8642912795717</v>
       </c>
       <c r="D5" t="n">
-        <v>1422.14692331494</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4597,22 +4597,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U5" t="n">
-        <v>2496.117797904436</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V5" t="n">
-        <v>2165.054910560866</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W5" t="n">
-        <v>1812.286255290752</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X5" t="n">
-        <v>1812.286255290752</v>
+        <v>1112.426648284105</v>
       </c>
       <c r="Y5" t="n">
-        <v>1422.14692331494</v>
+        <v>1112.426648284105</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4661,10 +4661,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2627.754532504893</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4685,10 +4685,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>546.4805193761947</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>377.5443364482878</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>227.4276970359521</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>79.51460345355898</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>684.3735766921516</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064344</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1210.087414675782</v>
+        <v>1589.347031634719</v>
       </c>
       <c r="C8" t="n">
-        <v>1210.087414675782</v>
+        <v>1220.384514694307</v>
       </c>
       <c r="D8" t="n">
-        <v>1210.087414675782</v>
+        <v>862.1188160875565</v>
       </c>
       <c r="E8" t="n">
-        <v>1210.087414675782</v>
+        <v>476.3305634893123</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861747</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V8" t="n">
-        <v>2326.461160182788</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W8" t="n">
-        <v>1973.692504912674</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="X8" t="n">
-        <v>1600.226746651594</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="Y8" t="n">
-        <v>1210.087414675782</v>
+        <v>1975.94687169884</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>79.74333131856829</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C10" t="n">
-        <v>79.74333131856829</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D10" t="n">
-        <v>79.74333131856829</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>79.74333131856829</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>79.74333131856829</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>79.74333131856829</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4971,43 +4971,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S10" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T10" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U10" t="n">
-        <v>261.391796148808</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V10" t="n">
-        <v>261.391796148808</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W10" t="n">
-        <v>261.391796148808</v>
+        <v>684.3735766921516</v>
       </c>
       <c r="X10" t="n">
-        <v>261.391796148808</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="Y10" t="n">
-        <v>261.391796148808</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="11">
@@ -5017,58 +5017,58 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
@@ -5086,7 +5086,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5117,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K12" t="n">
-        <v>222.5746515181232</v>
+        <v>222.5746515181233</v>
       </c>
       <c r="L12" t="n">
-        <v>452.5377573864724</v>
+        <v>836.471721275012</v>
       </c>
       <c r="M12" t="n">
-        <v>1019.893908186784</v>
+        <v>1604.839867667473</v>
       </c>
       <c r="N12" t="n">
-        <v>1364.414563824402</v>
+        <v>2192.176613678825</v>
       </c>
       <c r="O12" t="n">
-        <v>2033.878325127062</v>
+        <v>2440.930027762787</v>
       </c>
       <c r="P12" t="n">
-        <v>2554.178946862809</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1141.200876391121</v>
+        <v>732.358329063101</v>
       </c>
       <c r="C13" t="n">
-        <v>972.2646934632137</v>
+        <v>563.4221461351941</v>
       </c>
       <c r="D13" t="n">
-        <v>822.1480540508779</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E13" t="n">
-        <v>674.2349604684848</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705744</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V13" t="n">
-        <v>1387.841167119728</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W13" t="n">
-        <v>1387.841167119728</v>
+        <v>1181.140459104648</v>
       </c>
       <c r="X13" t="n">
-        <v>1387.841167119728</v>
+        <v>953.1509082066311</v>
       </c>
       <c r="Y13" t="n">
-        <v>1322.84934122136</v>
+        <v>732.358329063101</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5263,19 +5263,19 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155889</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823787</v>
@@ -5296,34 +5296,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5333,16 +5333,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C15" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D15" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E15" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047446</v>
       </c>
       <c r="F15" t="n">
         <v>358.2718071316295</v>
@@ -5354,31 +5354,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="K15" t="n">
-        <v>388.8958536704856</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="L15" t="n">
-        <v>618.8589595388348</v>
+        <v>327.180197328635</v>
       </c>
       <c r="M15" t="n">
-        <v>939.1942790685366</v>
+        <v>1095.548343721096</v>
       </c>
       <c r="N15" t="n">
-        <v>1743.605857332687</v>
+        <v>1440.068999358714</v>
       </c>
       <c r="O15" t="n">
-        <v>2371.535469249458</v>
+        <v>2023.248313029762</v>
       </c>
       <c r="P15" t="n">
-        <v>2554.178946862809</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5393,7 +5393,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V15" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W15" t="n">
         <v>1571.258395043133</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>981.5095496229244</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C16" t="n">
-        <v>812.5733666950175</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D16" t="n">
-        <v>662.4567272826818</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E16" t="n">
-        <v>514.5436337002886</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F16" t="n">
-        <v>367.6536862023783</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5469,19 +5469,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557902</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V16" t="n">
-        <v>1498.916270557902</v>
+        <v>958.0114883989233</v>
       </c>
       <c r="W16" t="n">
-        <v>1209.499100520942</v>
+        <v>668.5943183619627</v>
       </c>
       <c r="X16" t="n">
-        <v>981.5095496229244</v>
+        <v>668.5943183619627</v>
       </c>
       <c r="Y16" t="n">
-        <v>981.5095496229244</v>
+        <v>447.8017392184325</v>
       </c>
     </row>
     <row r="17">
@@ -5491,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
@@ -5506,40 +5506,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231264</v>
@@ -5551,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5582,7 +5582,7 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G18" t="n">
         <v>221.3451287358148</v>
@@ -5591,28 +5591,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="K18" t="n">
-        <v>469.5954827887337</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="L18" t="n">
-        <v>699.5585886570829</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="M18" t="n">
-        <v>1019.893908186785</v>
+        <v>865.5852378527477</v>
       </c>
       <c r="N18" t="n">
-        <v>1364.414563824403</v>
+        <v>1669.996816116899</v>
       </c>
       <c r="O18" t="n">
-        <v>2033.878325127062</v>
+        <v>1918.750230200861</v>
       </c>
       <c r="P18" t="n">
-        <v>2554.178946862809</v>
+        <v>2439.050851936609</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688074</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799368</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473456</v>
       </c>
       <c r="T19" t="n">
-        <v>964.1357418247858</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U19" t="n">
-        <v>675.007103038344</v>
+        <v>786.0822064765196</v>
       </c>
       <c r="V19" t="n">
-        <v>568.2827263274862</v>
+        <v>531.3977182706327</v>
       </c>
       <c r="W19" t="n">
-        <v>278.8655562905255</v>
+        <v>241.9805482336721</v>
       </c>
       <c r="X19" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="Y19" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="20">
@@ -5728,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
@@ -5749,34 +5749,34 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231264</v>
@@ -5788,16 +5788,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5828,28 +5828,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J21" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K21" t="n">
-        <v>508.1073603047985</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L21" t="n">
-        <v>1122.004430061687</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M21" t="n">
-        <v>1442.339749591389</v>
+        <v>1609.589088435861</v>
       </c>
       <c r="N21" t="n">
-        <v>2122.782055165496</v>
+        <v>1954.109744073479</v>
       </c>
       <c r="O21" t="n">
-        <v>2371.535469249458</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P21" t="n">
-        <v>2554.178946862809</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>324.3840174432676</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C22" t="n">
-        <v>155.4478345153607</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D22" t="n">
-        <v>155.4478345153607</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E22" t="n">
-        <v>155.4478345153607</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F22" t="n">
-        <v>155.4478345153607</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U22" t="n">
-        <v>1498.916270557902</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V22" t="n">
-        <v>1244.231782352015</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W22" t="n">
-        <v>954.8146123150548</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X22" t="n">
-        <v>726.8250614170374</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="Y22" t="n">
-        <v>506.0324822735073</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823791</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514095</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -6013,28 +6013,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6065,31 +6065,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="K24" t="n">
-        <v>388.8958536704856</v>
+        <v>508.1073603047986</v>
       </c>
       <c r="L24" t="n">
-        <v>618.8589595388348</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M24" t="n">
-        <v>939.1942790685366</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N24" t="n">
-        <v>1691.441695849499</v>
+        <v>2374.820091292176</v>
       </c>
       <c r="O24" t="n">
-        <v>2360.905457152158</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P24" t="n">
-        <v>2543.548934765509</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6123,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>517.9294177607301</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C25" t="n">
-        <v>395.2468244550147</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D25" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U25" t="n">
-        <v>1209.787631771461</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V25" t="n">
-        <v>1209.787631771461</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W25" t="n">
-        <v>920.3704617344999</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>920.3704617344999</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="Y25" t="n">
-        <v>699.5778825909698</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="26">
@@ -6220,34 +6220,34 @@
         <v>488.1932370805462</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182377</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6293,13 +6293,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
         <v>97.21709146028584</v>
@@ -6308,25 +6308,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>388.8958536704856</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L27" t="n">
-        <v>1002.792923427374</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M27" t="n">
-        <v>1323.128242957076</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N27" t="n">
-        <v>2112.152043068196</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O27" t="n">
-        <v>2360.905457152158</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P27" t="n">
-        <v>2543.548934765509</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>434.3285960683721</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="C28" t="n">
-        <v>265.3924131404652</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="D28" t="n">
-        <v>265.3924131404652</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E28" t="n">
-        <v>265.3924131404652</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F28" t="n">
-        <v>265.3924131404652</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H28" t="n">
         <v>97.21709146028584</v>
@@ -6390,10 +6390,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6402,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1408.405678626398</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>1408.405678626398</v>
       </c>
       <c r="U28" t="n">
-        <v>1498.916270557902</v>
+        <v>1119.277039839956</v>
       </c>
       <c r="V28" t="n">
-        <v>1354.17636097712</v>
+        <v>864.5925516340694</v>
       </c>
       <c r="W28" t="n">
-        <v>1064.759190940159</v>
+        <v>864.5925516340694</v>
       </c>
       <c r="X28" t="n">
-        <v>836.769640042142</v>
+        <v>636.6030007360521</v>
       </c>
       <c r="Y28" t="n">
-        <v>615.9770608986119</v>
+        <v>415.8104215925219</v>
       </c>
     </row>
     <row r="29">
@@ -6460,55 +6460,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="30">
@@ -6539,31 +6539,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="K30" t="n">
-        <v>388.8958536704856</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="L30" t="n">
-        <v>1002.792923427374</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="M30" t="n">
-        <v>1323.128242957076</v>
+        <v>417.5524109899877</v>
       </c>
       <c r="N30" t="n">
-        <v>1323.128242957076</v>
+        <v>1221.963989254139</v>
       </c>
       <c r="O30" t="n">
-        <v>1992.592004259735</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P30" t="n">
-        <v>2512.892625995482</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,40 +6597,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6639,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T31" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V31" t="n">
-        <v>786.0822064765186</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W31" t="n">
-        <v>545.9992215018333</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="32">
@@ -6697,13 +6697,13 @@
         <v>179.8222783822457</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
@@ -6715,16 +6715,16 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231263</v>
@@ -6767,19 +6767,19 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K33" t="n">
         <v>508.1073603047985</v>
@@ -6788,16 +6788,16 @@
         <v>1122.004430061687</v>
       </c>
       <c r="M33" t="n">
-        <v>1801.299954809455</v>
+        <v>1819.161927111987</v>
       </c>
       <c r="N33" t="n">
-        <v>2145.820610447073</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O33" t="n">
-        <v>2145.820610447073</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>337.3000764349712</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="C34" t="n">
-        <v>337.3000764349712</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="D34" t="n">
-        <v>247.6350999123426</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E34" t="n">
-        <v>247.6350999123426</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F34" t="n">
-        <v>247.6350999123426</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G34" t="n">
-        <v>247.6350999123426</v>
+        <v>359.169691290395</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383383</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6882,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T34" t="n">
-        <v>1075.21084526296</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U34" t="n">
-        <v>786.0822064765186</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V34" t="n">
-        <v>786.0822064765186</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="W34" t="n">
-        <v>786.0822064765186</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="X34" t="n">
-        <v>558.0926555785013</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="Y34" t="n">
-        <v>337.3000764349712</v>
+        <v>527.3450129705744</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
@@ -6949,7 +6949,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6961,28 +6961,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7013,28 +7013,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K36" t="n">
-        <v>263.5382936126482</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L36" t="n">
-        <v>699.5585886570826</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M36" t="n">
-        <v>1019.893908186784</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N36" t="n">
-        <v>1364.414563824402</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O36" t="n">
-        <v>2033.878325127062</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P36" t="n">
-        <v>2554.178946862809</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7071,40 +7071,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K37" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7113,34 +7113,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1275.130855347408</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U37" t="n">
-        <v>1050.956765431391</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V37" t="n">
-        <v>796.2722772255036</v>
+        <v>1044.751733905552</v>
       </c>
       <c r="W37" t="n">
-        <v>506.8551071885429</v>
+        <v>755.3345638685918</v>
       </c>
       <c r="X37" t="n">
-        <v>278.8655562905255</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="Y37" t="n">
-        <v>278.8655562905255</v>
+        <v>527.3450129705744</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155904</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805485</v>
+        <v>488.1932370805463</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182377</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7241,37 +7241,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
         <v>674.428562457161</v>
       </c>
       <c r="L39" t="n">
-        <v>904.3916683255102</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M39" t="n">
-        <v>1672.759814717972</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N39" t="n">
-        <v>2122.782055165496</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O39" t="n">
-        <v>2371.535469249458</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P39" t="n">
-        <v>2554.178946862809</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7308,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>266.1532743881928</v>
+        <v>799.8610847926851</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028589</v>
+        <v>630.9249018647782</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028589</v>
+        <v>630.9249018647782</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028589</v>
+        <v>483.0118082823851</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028589</v>
+        <v>483.0118082823851</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028589</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028589</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
         <v>507.4972331799365</v>
@@ -7362,22 +7362,22 @@
         <v>1498.916270557903</v>
       </c>
       <c r="T40" t="n">
-        <v>1275.130855347409</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U40" t="n">
-        <v>1275.130855347409</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V40" t="n">
-        <v>1020.446367141522</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="W40" t="n">
-        <v>896.58386925998</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X40" t="n">
-        <v>668.5943183619627</v>
+        <v>981.5095496229249</v>
       </c>
       <c r="Y40" t="n">
-        <v>447.8017392184325</v>
+        <v>981.5095496229249</v>
       </c>
     </row>
     <row r="41">
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
@@ -7423,40 +7423,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7493,25 +7493,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>388.8958536704856</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L42" t="n">
-        <v>618.8589595388348</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M42" t="n">
-        <v>939.1942790685366</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N42" t="n">
-        <v>1691.441695849499</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O42" t="n">
-        <v>2360.905457152158</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P42" t="n">
-        <v>2543.548934765509</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3890.044176674691</v>
+        <v>613.8011874802287</v>
       </c>
       <c r="C43" t="n">
-        <v>3721.107993746784</v>
+        <v>444.8650045523218</v>
       </c>
       <c r="D43" t="n">
-        <v>3721.107993746784</v>
+        <v>294.748365139986</v>
       </c>
       <c r="E43" t="n">
-        <v>3721.107993746784</v>
+        <v>146.8352715575929</v>
       </c>
       <c r="F43" t="n">
-        <v>3721.107993746784</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>3721.107993746784</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M43" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N43" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q43" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R43" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S43" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T43" t="n">
-        <v>4809.60341033292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U43" t="n">
-        <v>4520.474771546478</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V43" t="n">
-        <v>4520.474771546478</v>
+        <v>1244.231782352016</v>
       </c>
       <c r="W43" t="n">
-        <v>4520.474771546478</v>
+        <v>1244.231782352016</v>
       </c>
       <c r="X43" t="n">
-        <v>4292.485220648461</v>
+        <v>1016.242231453999</v>
       </c>
       <c r="Y43" t="n">
-        <v>4071.692641504931</v>
+        <v>795.4496523104684</v>
       </c>
     </row>
     <row r="44">
@@ -7639,10 +7639,10 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
@@ -7660,7 +7660,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
@@ -7727,19 +7727,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>508.1073603047986</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L45" t="n">
-        <v>1122.004430061687</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M45" t="n">
-        <v>1609.589088435861</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N45" t="n">
-        <v>1954.109744073479</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O45" t="n">
         <v>2623.573505376138</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>420.3226148324578</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>420.3226148324578</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>420.3226148324578</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>420.3226148324578</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>420.3226148324578</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>252.1472931522784</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>101.7292847002217</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S46" t="n">
-        <v>1187.921157035281</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>964.1357418247865</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U46" t="n">
-        <v>675.0071030383447</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>420.3226148324578</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>420.3226148324578</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>420.3226148324578</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>420.3226148324578</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747122</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8309,7 +8309,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>274.4264991783515</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>194.3570488013782</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8789,10 +8789,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9008,7 +9008,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9029,7 +9029,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9245,10 +9245,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
@@ -9266,7 +9266,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9497,13 +9497,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9734,10 +9734,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720721</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9968,16 +9968,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10193,16 +10193,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10442,16 +10442,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10667,7 +10667,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10679,16 +10679,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720721</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10913,19 +10913,19 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>121.3733462459509</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11080,7 +11080,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>212.314990659903</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11153,13 +11153,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11390,7 +11390,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23427,16 +23427,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
@@ -23475,16 +23475,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>224.0625883216977</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>154.2427457127107</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>158.0944135005142</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,19 +23709,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>2.879261385016122</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23949,13 +23949,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>146.4805103800788</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>82.3938331833848</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24141,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>108.8451328388535</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24177,13 +24177,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>82.39383318338525</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24363,16 +24363,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>45.7910537259696</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24414,25 +24414,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24651,19 +24651,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>108.3153239714136</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>108.8451328388535</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24897,16 +24897,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>48.8408432116525</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25080,7 +25080,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>59.84714626081002</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25089,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25137,13 +25137,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>140.3375291694989</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,16 +25362,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>64.30500338171984</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>0.4355620216042837</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25557,19 +25557,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>43.88987264130743</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,22 +25602,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>163.8991254338646</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>96.29904972659723</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,13 +25839,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>170.8089100038309</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -26037,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>105.9521741567355</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26079,16 +26079,16 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>82.39383318338511</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>801609.5724623034</v>
+        <v>801609.5724623033</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>801609.5724623033</v>
+        <v>801609.5724623034</v>
       </c>
     </row>
     <row r="8">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>801609.5724623036</v>
+        <v>801609.5724623034</v>
       </c>
     </row>
     <row r="13">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516046</v>
+        <v>595255.2831516049</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516047</v>
+        <v>595255.2831516051</v>
       </c>
       <c r="D2" t="n">
         <v>595255.2831516047</v>
       </c>
       <c r="E2" t="n">
-        <v>566992.1366196777</v>
+        <v>566992.1366196779</v>
       </c>
       <c r="F2" t="n">
-        <v>566992.1366196775</v>
+        <v>566992.136619678</v>
       </c>
       <c r="G2" t="n">
+        <v>566992.1366196779</v>
+      </c>
+      <c r="H2" t="n">
+        <v>566992.1366196779</v>
+      </c>
+      <c r="I2" t="n">
         <v>566992.1366196781</v>
-      </c>
-      <c r="H2" t="n">
-        <v>566992.136619678</v>
-      </c>
-      <c r="I2" t="n">
-        <v>566992.1366196779</v>
       </c>
       <c r="J2" t="n">
         <v>566992.1366196778</v>
       </c>
       <c r="K2" t="n">
-        <v>566992.1366196779</v>
+        <v>566992.136619678</v>
       </c>
       <c r="L2" t="n">
-        <v>566992.1366196774</v>
+        <v>566992.1366196777</v>
       </c>
       <c r="M2" t="n">
-        <v>566992.1366196774</v>
+        <v>566992.136619678</v>
       </c>
       <c r="N2" t="n">
-        <v>566992.1366196781</v>
+        <v>566992.136619678</v>
       </c>
       <c r="O2" t="n">
-        <v>566992.1366196779</v>
+        <v>566992.1366196778</v>
       </c>
       <c r="P2" t="n">
-        <v>566992.1366196775</v>
+        <v>566992.136619678</v>
       </c>
     </row>
     <row r="3">
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768963</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>4.419501919983305e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,19 +26389,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.2191925928</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.170374162029475e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338373</v>
       </c>
       <c r="N3" t="n">
-        <v>1.11379904410569e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26423,43 +26423,43 @@
         <v>139059.1391806191</v>
       </c>
       <c r="D4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="E4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758697</v>
       </c>
       <c r="G4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758052</v>
       </c>
       <c r="H4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758063</v>
       </c>
       <c r="I4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758696</v>
       </c>
       <c r="J4" t="n">
         <v>787.7936905758694</v>
       </c>
       <c r="K4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905757877</v>
       </c>
       <c r="L4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758693</v>
       </c>
       <c r="M4" t="n">
+        <v>787.7936905758696</v>
+      </c>
+      <c r="N4" t="n">
         <v>787.7936905758694</v>
-      </c>
-      <c r="N4" t="n">
-        <v>787.7936905758696</v>
       </c>
       <c r="O4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="P4" t="n">
-        <v>787.7936905758693</v>
+        <v>787.7936905758695</v>
       </c>
     </row>
     <row r="5">
@@ -26475,37 +26475,37 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
+        <v>91987.32594871667</v>
+      </c>
+      <c r="L5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="M5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="N5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="L5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="M5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="N5" t="n">
-        <v>91987.32594871667</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-216630.8133069684</v>
+        <v>-216630.813306968</v>
       </c>
       <c r="C6" t="n">
-        <v>373337.0659075762</v>
+        <v>373337.0659075765</v>
       </c>
       <c r="D6" t="n">
         <v>373337.0659075762</v>
       </c>
       <c r="E6" t="n">
-        <v>-50943.01949651111</v>
+        <v>-51917.61075623241</v>
       </c>
       <c r="F6" t="n">
-        <v>474217.0169803851</v>
+        <v>473242.4257206638</v>
       </c>
       <c r="G6" t="n">
-        <v>474217.0169803856</v>
+        <v>473242.4257206633</v>
       </c>
       <c r="H6" t="n">
-        <v>474217.0169803855</v>
+        <v>473242.4257206639</v>
       </c>
       <c r="I6" t="n">
-        <v>474217.0169803854</v>
+        <v>473242.4257206639</v>
       </c>
       <c r="J6" t="n">
-        <v>297793.7977877924</v>
+        <v>296819.2065280707</v>
       </c>
       <c r="K6" t="n">
-        <v>474217.0169803854</v>
+        <v>473242.4257206638</v>
       </c>
       <c r="L6" t="n">
-        <v>474217.0169803849</v>
+        <v>473242.4257206636</v>
       </c>
       <c r="M6" t="n">
-        <v>339416.0017465478</v>
+        <v>338441.4104868265</v>
       </c>
       <c r="N6" t="n">
-        <v>474217.0169803855</v>
+        <v>473242.4257206639</v>
       </c>
       <c r="O6" t="n">
-        <v>474217.0169803855</v>
+        <v>473242.4257206636</v>
       </c>
       <c r="P6" t="n">
-        <v>474217.0169803851</v>
+        <v>473242.4257206639</v>
       </c>
     </row>
   </sheetData>
@@ -26740,37 +26740,37 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541008</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="N3" t="n">
         <v>830.3824054541004</v>
@@ -26795,28 +26795,28 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="G4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="H4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="I4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="J4" t="n">
         <v>1215.213643253573</v>
       </c>
       <c r="K4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="L4" t="n">
         <v>1215.213643253573</v>
@@ -26825,7 +26825,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="N4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="O4" t="n">
         <v>1215.213643253573</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27035,19 +27035,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545551</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.926370499018</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>346.7921858426369</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27399,7 +27399,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>146.7190594962157</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,28 +27426,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27557,10 +27557,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,25 +27581,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>112.855208696897</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>96.01048066168096</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>75.45116101857428</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,10 +27669,10 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>106.681589900453</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27681,10 +27681,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27776,16 +27776,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>120.1051426060687</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27836,13 +27836,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>243.2051448974512</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>2.496509910248108</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27912,13 +27912,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>15.24960951786687</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28028,13 +28028,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>130.6285428385733</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28067,19 +28067,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>243.2051448974511</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28614,7 +28614,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>-1.020900265806996e-12</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -31041,13 +31041,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31065,22 +31065,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31144,7 +31144,7 @@
         <v>211.31907117367</v>
       </c>
       <c r="O3" t="n">
-        <v>193.3156655923047</v>
+        <v>73.87984549392695</v>
       </c>
       <c r="P3" t="n">
         <v>155.1528646479577</v>
@@ -31153,16 +31153,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,13 +31223,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31238,7 +31238,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>139.4326257134866</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31515,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31539,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31612,7 +31612,7 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>162.4518126576419</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
         <v>211.31907117367</v>
@@ -31624,19 +31624,19 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31712,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31770,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31779,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31788,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31840,37 +31840,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>249.5159911824346</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>245.2687781552867</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31931,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130947015</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -32086,16 +32086,16 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>383.0062604371802</v>
+        <v>337.8039389768536</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443619</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444947</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041491</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304443</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565522</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927189</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540889</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104654</v>
       </c>
       <c r="T17" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354104</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386727</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127068</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
-        <v>81.5147768871193</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>452.5584109724849</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>464.5362854813465</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>116.29100497596</v>
       </c>
       <c r="R18" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677467</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361494</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J19" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822384</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196126</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171321</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P19" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337674</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892249</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.0816769579135182</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,10 +32463,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32475,37 +32475,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32548,25 +32548,25 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>0.9375118102112197</v>
       </c>
       <c r="N21" t="n">
-        <v>339.3147979156454</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -32575,13 +32575,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32703,7 +32703,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32712,31 +32712,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32785,25 +32785,25 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>411.8452132761049</v>
+        <v>141.3402618185952</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -32812,7 +32812,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
         <v>33.17612723677465</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32876,7 +32876,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32888,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32940,7 +32940,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32949,31 +32949,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33022,22 +33022,22 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
-        <v>448.9930752257593</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33113,7 +33113,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
@@ -33125,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33177,7 +33177,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33186,31 +33186,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P29" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33259,34 +33259,34 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>340.8546090773496</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>30.96596845457215</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
         <v>33.17612723677465</v>
@@ -33338,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33350,7 +33350,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
@@ -33362,19 +33362,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33414,7 +33414,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33423,31 +33423,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P32" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647471</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33496,34 +33496,34 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>362.5860658768348</v>
+        <v>380.6284621420183</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>33.17612723677465</v>
@@ -33575,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33587,7 +33587,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
@@ -33599,19 +33599,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33651,7 +33651,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
@@ -33660,31 +33660,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P35" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33733,34 +33733,34 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>208.1385749253387</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>33.17612723677465</v>
@@ -33812,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33824,7 +33824,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
         <v>229.1447054263751</v>
@@ -33836,19 +33836,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33979,13 +33979,13 @@
         <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
         <v>452.5584109724847</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813463</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -33997,7 +33997,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>33.17612723677465</v>
@@ -34213,19 +34213,19 @@
         <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N42" t="n">
-        <v>411.8452132761049</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855527</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -34234,7 +34234,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
         <v>33.17612723677465</v>
@@ -34380,10 +34380,10 @@
         <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927169</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540871</v>
       </c>
       <c r="P44" t="n">
         <v>480.0403130946993</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622983</v>
@@ -34456,13 +34456,13 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>168.9387261055271</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855527</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -34713,10 +34713,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34792,13 +34792,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>325.1459203262118</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>323.9209869390935</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35187,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35260,19 +35260,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>486.0228424856235</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35494,22 +35494,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>573.0870210104162</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
-        <v>348.0006622602202</v>
+        <v>593.2694404155069</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178377</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35582,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35664,13 +35664,13 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109146</v>
       </c>
       <c r="Q14" t="n">
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415665</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O15" t="n">
-        <v>634.2723352694653</v>
+        <v>589.0700138091387</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
         <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109075</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.329650222112</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081122</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951475</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349822</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>208.1385749253389</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004665</v>
       </c>
       <c r="N18" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415667</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>525.556183571462</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>186.3865186257875</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556559</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299107</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799287</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187483</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K20" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M21" t="n">
-        <v>323.5710298279816</v>
+        <v>324.5085416381928</v>
       </c>
       <c r="N21" t="n">
-        <v>687.3154601758656</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O21" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,19 +36278,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36299,7 +36299,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36363,25 +36363,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M24" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N24" t="n">
-        <v>759.8458755363251</v>
+        <v>489.3409240788154</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178377</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,19 +36515,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36536,7 +36536,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415063</v>
       </c>
       <c r="K26" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,28 +36676,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M27" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N27" t="n">
-        <v>796.9937374859795</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O27" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,19 +36752,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36773,7 +36773,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36837,25 +36837,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594834</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>323.5710298279816</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178377</v>
+        <v>592.1206839096346</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q30" t="n">
-        <v>101.0614821043997</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,19 +36989,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M31" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O31" t="n">
         <v>236.2373515206029</v>
@@ -37010,7 +37010,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37074,25 +37074,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502023</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,25 +37150,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M33" t="n">
-        <v>686.1570957048164</v>
+        <v>704.1994919699999</v>
       </c>
       <c r="N33" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,19 +37226,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K34" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M34" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O34" t="n">
         <v>236.2373515206029</v>
@@ -37247,7 +37247,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37311,25 +37311,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,25 +37387,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L36" t="n">
-        <v>440.4245404489237</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M36" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N36" t="n">
-        <v>348.0006622602202</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,19 +37463,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K37" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M37" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O37" t="n">
         <v>236.2373515206029</v>
@@ -37484,7 +37484,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415063</v>
       </c>
       <c r="K38" t="n">
         <v>528.6897561303331</v>
@@ -37627,22 +37627,22 @@
         <v>415.0406756005179</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M39" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N39" t="n">
-        <v>454.5679196439638</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O39" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37800,7 +37800,7 @@
         <v>570.6060255109124</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502032</v>
       </c>
       <c r="R41" t="n">
         <v>59.82538970349813</v>
@@ -37861,28 +37861,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L42" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M42" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N42" t="n">
-        <v>759.8458755363251</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178378</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38028,10 +38028,10 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081101</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951457</v>
       </c>
       <c r="P44" t="n">
         <v>570.6060255109124</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
         <v>415.0406756005179</v>
@@ -38104,13 +38104,13 @@
         <v>620.0980502594836</v>
       </c>
       <c r="M45" t="n">
-        <v>492.5097559335087</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N45" t="n">
-        <v>348.0006622602202</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178378</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2652221.087986526</v>
+        <v>2657160.350835558</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>475437.9746402199</v>
+        <v>362317.5901706843</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665969</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -670,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>192.484498379549</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>5.212256748645492</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,10 +712,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -800,7 +800,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>251.6949831609198</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -870,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>129.0246247964033</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -879,7 +879,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>129.0246247964035</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -901,7 +901,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>279.2318806021087</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -913,7 +913,7 @@
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>279.2318806021087</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>43.31785343913981</v>
+        <v>43.31785343914003</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1144,7 +1144,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>404.3795358314633</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1192,10 +1192,10 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>325.2557485598869</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>59.72683757586869</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>43.31785343913992</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274225</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1590,13 +1590,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>62.4604100148933</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>40.39974023749735</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1770,16 +1770,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>95.02525064967692</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1821,10 +1821,10 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>249.2583819388119</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648052002</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385031</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -1940,10 +1940,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H18" t="n">
-        <v>94.98542483262919</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.9013320701444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T18" t="n">
         <v>192.9654699154601</v>
@@ -2061,13 +2061,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>169.7438101404427</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>143.3158222056524</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2098,10 +2098,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648052002</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2329,7 +2329,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>406.876045741713</v>
       </c>
       <c r="G23" t="n">
         <v>411.9645167896915</v>
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>118.4898845065123</v>
       </c>
       <c r="U25" t="n">
-        <v>203.8435192151921</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>89.60548601218963</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151922</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634824</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>27.28566982380586</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2961,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3000,16 +3000,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>115.526976800218</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3249,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>146.1854691670921</v>
+        <v>146.1854691670925</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3283,7 +3283,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113178</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
         <v>81.77913505274074</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3438,10 +3438,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>251.7020813022237</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>1.834397086807111</v>
       </c>
     </row>
     <row r="38">
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>122.6036958220702</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>122.6519788371605</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3900,19 +3900,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>49.12199829633401</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3951,22 +3951,22 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>281.1484359425176</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4306,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1584.314837422907</v>
+        <v>1111.918385033061</v>
       </c>
       <c r="C2" t="n">
-        <v>1215.352320482495</v>
+        <v>742.9558680926498</v>
       </c>
       <c r="D2" t="n">
-        <v>1215.352320482495</v>
+        <v>742.9558680926498</v>
       </c>
       <c r="E2" t="n">
-        <v>1215.352320482495</v>
+        <v>742.9558680926498</v>
       </c>
       <c r="F2" t="n">
-        <v>804.3664156928874</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G2" t="n">
-        <v>386.4026075910742</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>59.20788762707707</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224075</v>
@@ -4348,34 +4348,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V2" t="n">
-        <v>2697.149091018222</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="W2" t="n">
-        <v>2344.380435748108</v>
+        <v>1871.983983358263</v>
       </c>
       <c r="X2" t="n">
-        <v>1970.914677487028</v>
+        <v>1498.518225097183</v>
       </c>
       <c r="Y2" t="n">
-        <v>1970.914677487028</v>
+        <v>1498.518225097183</v>
       </c>
     </row>
     <row r="3">
@@ -4385,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
@@ -4424,34 +4424,34 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>597.8010803716834</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>308.6274700262513</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V4" t="n">
-        <v>53.94298182036445</v>
+        <v>184.2708856551155</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="5">
@@ -4549,16 +4549,16 @@
         <v>356.8642912795717</v>
       </c>
       <c r="D5" t="n">
-        <v>74.81188663097703</v>
+        <v>356.8642912795717</v>
       </c>
       <c r="E5" t="n">
-        <v>74.81188663097703</v>
+        <v>356.8642912795717</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>349.9187905303682</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>335.9953864689591</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4567,19 +4567,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4637,10 +4637,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4731,37 +4731,37 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
         <v>684.3735766921516</v>
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1589.347031634719</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C8" t="n">
-        <v>1220.384514694307</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>862.1188160875565</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>476.3305634893123</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
         <v>67.86638588177355</v>
@@ -4810,13 +4810,13 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4840,16 +4840,16 @@
         <v>2697.149091018223</v>
       </c>
       <c r="V8" t="n">
-        <v>2366.086203674652</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W8" t="n">
-        <v>2366.086203674652</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="X8" t="n">
-        <v>2366.086203674652</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y8" t="n">
-        <v>1975.94687169884</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="9">
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036446</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036446</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036446</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036446</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
         <v>53.94298182036446</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>684.3735766921516</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>456.3840257941342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>235.5914466506042</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="11">
@@ -5017,43 +5017,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805485</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822478</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643324</v>
@@ -5062,31 +5062,31 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S11" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="12">
@@ -5117,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="K12" t="n">
         <v>222.5746515181233</v>
       </c>
       <c r="L12" t="n">
-        <v>836.471721275012</v>
+        <v>452.5377573864724</v>
       </c>
       <c r="M12" t="n">
-        <v>1604.839867667473</v>
+        <v>1220.905903778934</v>
       </c>
       <c r="N12" t="n">
-        <v>2192.176613678825</v>
+        <v>1565.426559416552</v>
       </c>
       <c r="O12" t="n">
-        <v>2440.930027762787</v>
+        <v>2033.878325127062</v>
       </c>
       <c r="P12" t="n">
-        <v>2623.573505376138</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5184,31 +5184,31 @@
         <v>413.3055067228584</v>
       </c>
       <c r="E13" t="n">
-        <v>265.3924131404652</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="F13" t="n">
-        <v>265.3924131404652</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V13" t="n">
-        <v>1244.231782352015</v>
+        <v>1244.231782352016</v>
       </c>
       <c r="W13" t="n">
-        <v>1181.140459104648</v>
+        <v>954.8146123150552</v>
       </c>
       <c r="X13" t="n">
-        <v>953.1509082066311</v>
+        <v>954.8146123150552</v>
       </c>
       <c r="Y13" t="n">
-        <v>732.358329063101</v>
+        <v>914.0067938933407</v>
       </c>
     </row>
     <row r="14">
@@ -5263,37 +5263,37 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155889</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028589</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
         <v>4454.632848899128</v>
@@ -5333,16 +5333,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C15" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D15" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E15" t="n">
-        <v>504.8063651047446</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
         <v>358.2718071316295</v>
@@ -5360,25 +5360,25 @@
         <v>97.21709146028589</v>
       </c>
       <c r="K15" t="n">
-        <v>97.21709146028589</v>
+        <v>222.5746515181233</v>
       </c>
       <c r="L15" t="n">
-        <v>327.180197328635</v>
+        <v>452.5377573864724</v>
       </c>
       <c r="M15" t="n">
-        <v>1095.548343721096</v>
+        <v>772.8730769161742</v>
       </c>
       <c r="N15" t="n">
-        <v>1440.068999358714</v>
+        <v>1577.284655180325</v>
       </c>
       <c r="O15" t="n">
-        <v>2023.248313029762</v>
+        <v>2246.748416482984</v>
       </c>
       <c r="P15" t="n">
-        <v>2543.548934765509</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q15" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5393,7 +5393,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V15" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W15" t="n">
         <v>1571.258395043133</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>266.1532743881928</v>
+        <v>807.0580565471723</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028589</v>
+        <v>638.1218736192654</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028589</v>
+        <v>488.0052342069297</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028589</v>
+        <v>340.0921406245366</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028589</v>
+        <v>193.2021931266262</v>
       </c>
       <c r="G16" t="n">
         <v>97.21709146028589</v>
@@ -5436,16 +5436,16 @@
         <v>97.21709146028589</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U16" t="n">
-        <v>1209.787631771461</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V16" t="n">
-        <v>958.0114883989233</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="W16" t="n">
-        <v>668.5943183619627</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X16" t="n">
-        <v>668.5943183619627</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="Y16" t="n">
-        <v>447.8017392184325</v>
+        <v>988.7065213774121</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5500,10 +5500,10 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
         <v>488.1932370805469</v>
@@ -5512,13 +5512,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
@@ -5527,22 +5527,22 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
@@ -5551,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5582,7 +5582,7 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
         <v>221.3451287358148</v>
@@ -5591,28 +5591,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K18" t="n">
-        <v>97.21709146028589</v>
+        <v>222.5746515181233</v>
       </c>
       <c r="L18" t="n">
-        <v>97.21709146028589</v>
+        <v>452.5377573864724</v>
       </c>
       <c r="M18" t="n">
-        <v>865.5852378527477</v>
+        <v>772.8730769161742</v>
       </c>
       <c r="N18" t="n">
-        <v>1669.996816116899</v>
+        <v>1138.699705022017</v>
       </c>
       <c r="O18" t="n">
-        <v>1918.750230200861</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P18" t="n">
-        <v>2439.050851936609</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688074</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799368</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5700,25 +5700,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473456</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
         <v>1075.210845262961</v>
       </c>
       <c r="U19" t="n">
-        <v>786.0822064765196</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V19" t="n">
-        <v>531.3977182706327</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W19" t="n">
-        <v>241.9805482336721</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="20">
@@ -5731,67 +5731,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823779</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
         <v>3205.060556590537</v>
@@ -5828,25 +5828,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
         <v>263.5382936126483</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571611</v>
+        <v>511.6675616579997</v>
       </c>
       <c r="L21" t="n">
-        <v>1288.32563221405</v>
+        <v>741.6306675263488</v>
       </c>
       <c r="M21" t="n">
-        <v>1609.589088435861</v>
+        <v>1509.99881391881</v>
       </c>
       <c r="N21" t="n">
-        <v>1954.109744073479</v>
+        <v>1854.519469556428</v>
       </c>
       <c r="O21" t="n">
-        <v>2623.573505376138</v>
+        <v>2103.272883640391</v>
       </c>
       <c r="P21" t="n">
         <v>2623.573505376138</v>
@@ -5886,37 +5886,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
         <v>779.0639759471194</v>
@@ -5952,10 +5952,10 @@
         <v>241.9805482336716</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="23">
@@ -5965,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D23" t="n">
         <v>1701.093169003442</v>
@@ -5977,22 +5977,22 @@
         <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823791</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514095</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -6004,37 +6004,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="24">
@@ -6065,25 +6065,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K24" t="n">
-        <v>508.1073603047986</v>
+        <v>222.5746515181233</v>
       </c>
       <c r="L24" t="n">
-        <v>1122.004430061687</v>
+        <v>768.9531471704117</v>
       </c>
       <c r="M24" t="n">
-        <v>1890.372576454149</v>
+        <v>1089.288466700114</v>
       </c>
       <c r="N24" t="n">
-        <v>2374.820091292176</v>
+        <v>1433.809122337731</v>
       </c>
       <c r="O24" t="n">
-        <v>2623.573505376138</v>
+        <v>2103.272883640391</v>
       </c>
       <c r="P24" t="n">
         <v>2623.573505376138</v>
@@ -6123,34 +6123,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
         <v>507.4972331799365</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.210845262961</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011507</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952638</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028589</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="26">
@@ -6214,34 +6214,34 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.881333182377</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514068</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
         <v>4454.632848899126</v>
@@ -6253,10 +6253,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
         <v>4262.3578574653</v>
@@ -6314,10 +6314,10 @@
         <v>1288.32563221405</v>
       </c>
       <c r="M27" t="n">
-        <v>2056.693778606511</v>
+        <v>2030.299435654558</v>
       </c>
       <c r="N27" t="n">
-        <v>2623.573505376138</v>
+        <v>2374.820091292176</v>
       </c>
       <c r="O27" t="n">
         <v>2623.573505376138</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
         <v>97.21709146028584</v>
@@ -6411,25 +6411,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1408.405678626398</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1408.405678626398</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U28" t="n">
-        <v>1119.277039839956</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
-        <v>864.5925516340694</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>864.5925516340694</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>636.6030007360521</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6460,55 +6460,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6530,28 +6530,28 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K30" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L30" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M30" t="n">
-        <v>417.5524109899877</v>
+        <v>417.5524109899876</v>
       </c>
       <c r="N30" t="n">
         <v>1221.963989254139</v>
@@ -6597,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028589</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028589</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028589</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028589</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
         <v>507.4972331799365</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S31" t="n">
-        <v>1382.222354598087</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1158.436939387592</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U31" t="n">
-        <v>869.3083006011507</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V31" t="n">
-        <v>614.6238123952638</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="W31" t="n">
-        <v>325.2066423583032</v>
+        <v>720.4504516500526</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028589</v>
+        <v>492.4609007520353</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028589</v>
+        <v>271.6683216085052</v>
       </c>
     </row>
     <row r="32">
@@ -6688,22 +6688,22 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
@@ -6721,16 +6721,16 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207828</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
         <v>4262.3578574653</v>
@@ -6776,19 +6776,19 @@
         <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K33" t="n">
-        <v>508.1073603047985</v>
+        <v>508.1073603047986</v>
       </c>
       <c r="L33" t="n">
         <v>1122.004430061687</v>
       </c>
       <c r="M33" t="n">
-        <v>1819.161927111987</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N33" t="n">
         <v>2623.573505376138</v>
@@ -6849,13 +6849,13 @@
         <v>527.3450129705744</v>
       </c>
       <c r="G34" t="n">
-        <v>359.169691290395</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H34" t="n">
-        <v>208.7516828383383</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6864,10 +6864,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6876,25 +6876,25 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R34" t="n">
         <v>1387.841167119728</v>
       </c>
       <c r="S34" t="n">
-        <v>1187.92115703528</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T34" t="n">
-        <v>964.135741824786</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="U34" t="n">
-        <v>675.0071030383442</v>
+        <v>675.0071030383447</v>
       </c>
       <c r="V34" t="n">
-        <v>675.0071030383442</v>
+        <v>675.0071030383447</v>
       </c>
       <c r="W34" t="n">
         <v>527.3450129705744</v>
@@ -6916,19 +6916,19 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
@@ -6937,10 +6937,10 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
@@ -6964,25 +6964,25 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7016,16 +7016,16 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126483</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K36" t="n">
-        <v>674.428562457161</v>
+        <v>508.1073603047986</v>
       </c>
       <c r="L36" t="n">
-        <v>1288.32563221405</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M36" t="n">
-        <v>2056.693778606511</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N36" t="n">
         <v>2623.573505376138</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>527.3450129705744</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="C37" t="n">
-        <v>527.3450129705744</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D37" t="n">
-        <v>527.3450129705744</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E37" t="n">
-        <v>527.3450129705744</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F37" t="n">
-        <v>527.3450129705744</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G37" t="n">
-        <v>359.1696912903951</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H37" t="n">
         <v>208.7516828383384</v>
@@ -7119,28 +7119,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T37" t="n">
-        <v>1298.996260473455</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U37" t="n">
-        <v>1298.996260473455</v>
+        <v>874.9271131227924</v>
       </c>
       <c r="V37" t="n">
-        <v>1044.751733905552</v>
+        <v>620.2426249169056</v>
       </c>
       <c r="W37" t="n">
-        <v>755.3345638685918</v>
+        <v>620.2426249169056</v>
       </c>
       <c r="X37" t="n">
-        <v>527.3450129705744</v>
+        <v>392.2530740188882</v>
       </c>
       <c r="Y37" t="n">
-        <v>527.3450129705744</v>
+        <v>390.400147668578</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805463</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.881333182377</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514068</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7241,19 +7241,19 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K39" t="n">
         <v>674.428562457161</v>
@@ -7308,31 +7308,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>799.8610847926851</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C40" t="n">
-        <v>630.9249018647782</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D40" t="n">
-        <v>630.9249018647782</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E40" t="n">
-        <v>483.0118082823851</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F40" t="n">
-        <v>483.0118082823851</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G40" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K40" t="n">
         <v>259.7851881688072</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557903</v>
+        <v>1375.025382843599</v>
       </c>
       <c r="T40" t="n">
-        <v>1498.916270557903</v>
+        <v>1151.239967633105</v>
       </c>
       <c r="U40" t="n">
-        <v>1498.916270557903</v>
+        <v>862.1113288466635</v>
       </c>
       <c r="V40" t="n">
-        <v>1498.916270557903</v>
+        <v>607.4268406407766</v>
       </c>
       <c r="W40" t="n">
-        <v>1209.499100520942</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="X40" t="n">
-        <v>981.5095496229249</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y40" t="n">
-        <v>981.5095496229249</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805464</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822457</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
@@ -7432,31 +7432,31 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7478,28 +7478,28 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K42" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L42" t="n">
         <v>1288.32563221405</v>
       </c>
       <c r="M42" t="n">
-        <v>2056.693778606511</v>
+        <v>2056.693778606512</v>
       </c>
       <c r="N42" t="n">
         <v>2623.573505376138</v>
@@ -7545,37 +7545,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>613.8011874802287</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="C43" t="n">
-        <v>444.8650045523218</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="D43" t="n">
-        <v>294.748365139986</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="E43" t="n">
-        <v>146.8352715575929</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M43" t="n">
         <v>779.0639759471194</v>
@@ -7599,22 +7599,22 @@
         <v>1498.916270557903</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557903</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U43" t="n">
-        <v>1498.916270557903</v>
+        <v>991.1425362135525</v>
       </c>
       <c r="V43" t="n">
-        <v>1244.231782352016</v>
+        <v>736.4580480076656</v>
       </c>
       <c r="W43" t="n">
-        <v>1244.231782352016</v>
+        <v>447.040877970705</v>
       </c>
       <c r="X43" t="n">
-        <v>1016.242231453999</v>
+        <v>447.040877970705</v>
       </c>
       <c r="Y43" t="n">
-        <v>795.4496523104684</v>
+        <v>447.040877970705</v>
       </c>
     </row>
     <row r="44">
@@ -7639,10 +7639,10 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
@@ -7663,7 +7663,7 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
         <v>4454.632848899126</v>
@@ -7727,7 +7727,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K45" t="n">
         <v>674.428562457161</v>
@@ -7809,10 +7809,10 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M46" t="n">
         <v>779.0639759471194</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>194.3570488013782</v>
+        <v>194.3570488013777</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9008,7 +9008,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9245,10 +9245,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
@@ -9497,7 +9497,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -9734,7 +9734,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720721</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9892,7 +9892,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714807</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
@@ -9968,7 +9968,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -9977,7 +9977,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720721</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -11080,7 +11080,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.314990659903</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23478,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>224.0625883216977</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>178.1849131145974</v>
       </c>
     </row>
     <row r="14">
@@ -23658,16 +23658,16 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>71.46831781370066</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23709,10 +23709,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>2.879261385016122</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037927</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23949,13 +23949,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>82.39383318338528</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>82.3938331833848</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24414,13 +24414,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>103.0576765518769</v>
       </c>
       <c r="U25" t="n">
-        <v>82.39383318338523</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24615,10 +24615,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24651,25 +24651,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>108.3153239714136</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>82.39383318338511</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>152.5463103581314</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24849,7 +24849,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
@@ -24888,16 +24888,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>82.39383318338523</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25137,7 +25137,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>140.3375291694989</v>
+        <v>140.3375291694985</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25326,10 +25326,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0.4355620216042837</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>216.7502562652877</v>
       </c>
     </row>
     <row r="38">
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>43.88987264130743</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,25 +25599,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>75.26883114644278</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25788,19 +25788,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>96.29904972659723</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25839,22 +25839,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>5.088916456059735</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>801609.5724623036</v>
+        <v>801609.5724623034</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>801609.5724623033</v>
+        <v>801609.5724623034</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>801609.5724623034</v>
+        <v>801609.5724623036</v>
       </c>
     </row>
     <row r="10">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>801609.5724623034</v>
+        <v>801609.5724623036</v>
       </c>
     </row>
     <row r="14">
@@ -26316,28 +26316,28 @@
         <v>595255.2831516049</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516051</v>
+        <v>595255.2831516048</v>
       </c>
       <c r="D2" t="n">
         <v>595255.2831516047</v>
       </c>
       <c r="E2" t="n">
+        <v>566992.1366196781</v>
+      </c>
+      <c r="F2" t="n">
+        <v>566992.1366196781</v>
+      </c>
+      <c r="G2" t="n">
+        <v>566992.136619678</v>
+      </c>
+      <c r="H2" t="n">
+        <v>566992.1366196778</v>
+      </c>
+      <c r="I2" t="n">
+        <v>566992.1366196778</v>
+      </c>
+      <c r="J2" t="n">
         <v>566992.1366196779</v>
-      </c>
-      <c r="F2" t="n">
-        <v>566992.136619678</v>
-      </c>
-      <c r="G2" t="n">
-        <v>566992.1366196779</v>
-      </c>
-      <c r="H2" t="n">
-        <v>566992.1366196779</v>
-      </c>
-      <c r="I2" t="n">
-        <v>566992.1366196781</v>
-      </c>
-      <c r="J2" t="n">
-        <v>566992.1366196778</v>
       </c>
       <c r="K2" t="n">
         <v>566992.136619678</v>
@@ -26346,16 +26346,16 @@
         <v>566992.1366196777</v>
       </c>
       <c r="M2" t="n">
-        <v>566992.136619678</v>
+        <v>566992.1366196781</v>
       </c>
       <c r="N2" t="n">
-        <v>566992.136619678</v>
+        <v>566992.1366196779</v>
       </c>
       <c r="O2" t="n">
+        <v>566992.1366196779</v>
+      </c>
+      <c r="P2" t="n">
         <v>566992.1366196778</v>
-      </c>
-      <c r="P2" t="n">
-        <v>566992.136619678</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768964</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>4.419501919983305e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925928</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>1.170374162029475e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="C4" t="n">
         <v>139059.1391806191</v>
@@ -26426,40 +26426,40 @@
         <v>139059.139180619</v>
       </c>
       <c r="E4" t="n">
+        <v>787.7936905758696</v>
+      </c>
+      <c r="F4" t="n">
+        <v>787.7936905758696</v>
+      </c>
+      <c r="G4" t="n">
+        <v>787.793690575814</v>
+      </c>
+      <c r="H4" t="n">
         <v>787.7936905758695</v>
       </c>
-      <c r="F4" t="n">
-        <v>787.7936905758697</v>
-      </c>
-      <c r="G4" t="n">
-        <v>787.7936905758052</v>
-      </c>
-      <c r="H4" t="n">
-        <v>787.7936905758063</v>
-      </c>
       <c r="I4" t="n">
-        <v>787.7936905758696</v>
+        <v>787.7936905757998</v>
       </c>
       <c r="J4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758693</v>
       </c>
       <c r="K4" t="n">
-        <v>787.7936905757877</v>
+        <v>787.7936905758693</v>
       </c>
       <c r="L4" t="n">
         <v>787.7936905758693</v>
       </c>
       <c r="M4" t="n">
+        <v>787.7936905758695</v>
+      </c>
+      <c r="N4" t="n">
         <v>787.7936905758696</v>
-      </c>
-      <c r="N4" t="n">
-        <v>787.7936905758694</v>
       </c>
       <c r="O4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="P4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758693</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26478,37 +26478,37 @@
         <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="F5" t="n">
+        <v>91987.32594871667</v>
+      </c>
+      <c r="G5" t="n">
         <v>91987.32594871665</v>
       </c>
-      <c r="G5" t="n">
-        <v>91987.32594871667</v>
-      </c>
       <c r="H5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871665</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-216630.813306968</v>
+        <v>-216630.8133069681</v>
       </c>
       <c r="C6" t="n">
-        <v>373337.0659075765</v>
+        <v>373337.0659075762</v>
       </c>
       <c r="D6" t="n">
         <v>373337.0659075762</v>
       </c>
       <c r="E6" t="n">
-        <v>-51917.61075623241</v>
+        <v>-51040.47862248296</v>
       </c>
       <c r="F6" t="n">
-        <v>473242.4257206638</v>
+        <v>474119.5578544134</v>
       </c>
       <c r="G6" t="n">
-        <v>473242.4257206633</v>
+        <v>474119.5578544133</v>
       </c>
       <c r="H6" t="n">
-        <v>473242.4257206639</v>
+        <v>474119.5578544131</v>
       </c>
       <c r="I6" t="n">
-        <v>473242.4257206639</v>
+        <v>474119.5578544132</v>
       </c>
       <c r="J6" t="n">
-        <v>296819.2065280707</v>
+        <v>297696.3386618203</v>
       </c>
       <c r="K6" t="n">
-        <v>473242.4257206638</v>
+        <v>474119.5578544133</v>
       </c>
       <c r="L6" t="n">
-        <v>473242.4257206636</v>
+        <v>474119.557854413</v>
       </c>
       <c r="M6" t="n">
-        <v>338441.4104868265</v>
+        <v>339318.5426205761</v>
       </c>
       <c r="N6" t="n">
-        <v>473242.4257206639</v>
+        <v>474119.5578544132</v>
       </c>
       <c r="O6" t="n">
-        <v>473242.4257206636</v>
+        <v>474119.5578544132</v>
       </c>
       <c r="P6" t="n">
-        <v>473242.4257206639</v>
+        <v>474119.5578544132</v>
       </c>
     </row>
   </sheetData>
@@ -26737,25 +26737,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541008</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541004</v>
@@ -26776,10 +26776,10 @@
         <v>830.3824054541004</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541005</v>
       </c>
     </row>
     <row r="4">
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26798,25 +26798,25 @@
         <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="F4" t="n">
         <v>1215.213643253574</v>
       </c>
       <c r="G4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="H4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="I4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
         <v>1215.213643253573</v>
       </c>
       <c r="K4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="L4" t="n">
         <v>1215.213643253573</v>
@@ -26828,7 +26828,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="O4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="P4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370138</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545551</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27390,16 +27390,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>214.3915473621624</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>146.7190594962157</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,16 +27426,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,13 +27584,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>96.01048066168096</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27599,7 +27599,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>157.4983735401875</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27621,7 +27621,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>75.45116101857428</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27633,7 +27633,7 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>44.69089216224842</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27836,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>243.2051448974512</v>
+        <v>243.205144897451</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27864,7 +27864,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>2.496509910248108</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27912,10 +27912,10 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>23.98522015752616</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>120.1051426060686</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28073,13 +28073,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>243.2051448974511</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28614,7 +28614,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>-1.020900265806996e-12</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -29049,7 +29049,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>-1.534772309241816e-12</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31144,25 +31144,25 @@
         <v>211.31907117367</v>
       </c>
       <c r="O3" t="n">
-        <v>73.87984549392695</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>139.4326257134866</v>
+        <v>139.4326257134861</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,13 +31831,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
@@ -31846,19 +31846,19 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N12" t="n">
-        <v>245.2687781552867</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>221.9175268955021</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -31867,10 +31867,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130947015</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,13 +32068,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
@@ -32086,28 +32086,28 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>337.8039389768536</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>126.0475280469432</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443619</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444947</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041491</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304443</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565522</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927189</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540889</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104654</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,13 +32305,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354104</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386727</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127068</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -32323,31 +32323,31 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724849</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813465</v>
+        <v>21.52118431133863</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458551</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>116.29100497596</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677467</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361494</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298632</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
-        <v>105.8669502822384</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196126</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171321</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263752</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337674</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892249</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0816769579135182</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
         <v>34.18755300444946</v>
@@ -32472,7 +32472,7 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961197</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041489</v>
@@ -32484,13 +32484,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647497</v>
@@ -32505,7 +32505,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32554,22 +32554,22 @@
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>124.0118262500141</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0.9375118102112197</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -32581,7 +32581,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32621,10 +32621,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
         <v>45.03122946298631</v>
@@ -32633,10 +32633,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
         <v>234.725964217132</v>
@@ -32645,7 +32645,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
@@ -32657,13 +32657,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32791,22 +32791,22 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>319.6115048322619</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>141.3402618185952</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724847</v>
+        <v>425.8974584957645</v>
       </c>
       <c r="N27" t="n">
-        <v>224.6051223555648</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -33049,7 +33049,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>33.17612723677465</v>
@@ -33186,7 +33186,7 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041472</v>
       </c>
       <c r="L29" t="n">
         <v>526.7962671304441</v>
@@ -33441,7 +33441,7 @@
         <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647471</v>
+        <v>360.490283364748</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>380.6284621420183</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813463</v>
+        <v>392.6063366508801</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622983</v>
@@ -33748,7 +33748,7 @@
         <v>452.5584109724847</v>
       </c>
       <c r="N36" t="n">
-        <v>224.6051223555648</v>
+        <v>392.6063366508801</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H41" t="n">
         <v>34.18755300444946</v>
@@ -34143,13 +34143,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647497</v>
@@ -34164,7 +34164,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N42" t="n">
-        <v>224.6051223555648</v>
+        <v>224.6051223555639</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -34240,7 +34240,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34280,10 +34280,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H43" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I43" t="n">
         <v>45.03122946298631</v>
@@ -34292,10 +34292,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K43" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L43" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M43" t="n">
         <v>234.725964217132</v>
@@ -34304,7 +34304,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P43" t="n">
         <v>181.1050413469073</v>
@@ -34316,13 +34316,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H44" t="n">
         <v>34.18755300444946</v>
@@ -34380,13 +34380,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540871</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946974</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647497</v>
@@ -34401,7 +34401,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N45" t="n">
-        <v>224.6051223555648</v>
+        <v>224.6051223555644</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -34477,7 +34477,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34517,10 +34517,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H46" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I46" t="n">
         <v>45.03122946298631</v>
@@ -34529,10 +34529,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K46" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L46" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M46" t="n">
         <v>234.725964217132</v>
@@ -34541,7 +34541,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P46" t="n">
         <v>181.1050413469073</v>
@@ -34553,13 +34553,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>325.145920326212</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>323.9209869390935</v>
+        <v>323.920986939093</v>
       </c>
       <c r="Q6" t="n">
         <v>70.09551364982758</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35494,22 +35494,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004663</v>
       </c>
       <c r="N12" t="n">
-        <v>593.2694404155069</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O12" t="n">
-        <v>251.2660748322851</v>
+        <v>473.1836017277872</v>
       </c>
       <c r="P12" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109146</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,28 +35728,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004661</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N15" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O15" t="n">
-        <v>589.0700138091387</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>310.5358892725502</v>
       </c>
       <c r="Q15" t="n">
         <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109075</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.329650222112</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081122</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951475</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349822</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004665</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415667</v>
+        <v>369.5218465715589</v>
       </c>
       <c r="O18" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P18" t="n">
-        <v>525.556183571462</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q18" t="n">
-        <v>186.3865186257875</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556559</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299107</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799287</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187483</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415071</v>
       </c>
       <c r="K20" t="n">
         <v>528.6897561303331</v>
@@ -36132,19 +36132,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081121</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>250.6356242882337</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594837</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>324.5085416381928</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N21" t="n">
         <v>348.0006622602202</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178378</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
@@ -36287,7 +36287,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
         <v>273.2768778056037</v>
@@ -36299,7 +36299,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36439,22 +36439,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594836</v>
+        <v>551.8974703558468</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N24" t="n">
-        <v>489.3409240788154</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O24" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415063</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
         <v>528.6897561303331</v>
@@ -36612,7 +36612,7 @@
         <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109105</v>
       </c>
       <c r="Q26" t="n">
         <v>350.4995841502049</v>
@@ -36682,13 +36682,13 @@
         <v>620.0980502594836</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004662</v>
+        <v>749.4684883237461</v>
       </c>
       <c r="N27" t="n">
-        <v>572.6057846157851</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36834,7 +36834,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303314</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109073</v>
@@ -37089,7 +37089,7 @@
         <v>570.6060255109124</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502023</v>
+        <v>350.4995841502032</v>
       </c>
       <c r="R32" t="n">
         <v>59.82538970349813</v>
@@ -37156,10 +37156,10 @@
         <v>620.0980502594836</v>
       </c>
       <c r="M33" t="n">
-        <v>704.1994919699999</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415666</v>
+        <v>740.6069989111003</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005179</v>
@@ -37396,7 +37396,7 @@
         <v>776.1294408004662</v>
       </c>
       <c r="N36" t="n">
-        <v>572.6057846157851</v>
+        <v>740.6069989111003</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415063</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
         <v>528.6897561303331</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K41" t="n">
         <v>528.6897561303331</v>
@@ -37791,19 +37791,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502032</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,19 +37858,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K42" t="n">
         <v>415.0406756005179</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594836</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004663</v>
       </c>
       <c r="N42" t="n">
-        <v>572.6057846157851</v>
+        <v>572.6057846157842</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K43" t="n">
         <v>151.7024285299106</v>
@@ -37946,7 +37946,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M43" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N43" t="n">
         <v>273.2768778056037</v>
@@ -37958,7 +37958,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K44" t="n">
         <v>528.6897561303331</v>
@@ -38028,19 +38028,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951457</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109105</v>
       </c>
       <c r="Q44" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,19 +38095,19 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K45" t="n">
         <v>415.0406756005179</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594836</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004663</v>
       </c>
       <c r="N45" t="n">
-        <v>572.6057846157851</v>
+        <v>572.6057846157846</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K46" t="n">
         <v>151.7024285299106</v>
@@ -38183,7 +38183,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M46" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N46" t="n">
         <v>273.2768778056037</v>
@@ -38195,7 +38195,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
